--- a/TCEQ_Data.xlsx
+++ b/TCEQ_Data.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Incident Sums" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="293">
   <si>
     <t>INCIDENT NO.</t>
   </si>
@@ -10100,4 +10101,197 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A2,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A3,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A4,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A5,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A6,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A7,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A8,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A9,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A10,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A11,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A12,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A13,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A14,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A15,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A16,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A17,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18">
+        <f>SUMIF(Cases!A:A,'Incident Sums'!A18,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TCEQ_Data.xlsx
+++ b/TCEQ_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="294">
   <si>
     <t>INCIDENT NO.</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Flag(Y/N):</t>
+  </si>
+  <si>
+    <t>INCIDENT SUM(POUNDS)</t>
   </si>
   <si>
     <t>Carbon Monoxide</t>
@@ -1329,67 +1332,67 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2">
         <v>3309.46</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y2">
         <f>(H2-G2)*24</f>
@@ -1406,67 +1409,67 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3">
         <v>5911.12</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y3">
         <f>(H3-G3)*24</f>
@@ -1483,67 +1486,67 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4">
         <v>1657.6</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y4">
         <f>(H4-G4)*24</f>
@@ -1560,67 +1563,67 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5">
         <v>0.213</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y5">
         <f>(H5-G5)*24</f>
@@ -1637,67 +1640,67 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6">
         <v>8.65</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y6">
         <f>(H6-G6)*24</f>
@@ -1714,67 +1717,67 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7">
         <v>0.003</v>
       </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y7">
         <f>(H7-G7)*24</f>
@@ -1791,67 +1794,67 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8">
         <v>0.025</v>
       </c>
       <c r="P8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y8">
         <f>(H8-G8)*24</f>
@@ -1868,67 +1871,67 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9">
         <v>796.749</v>
       </c>
       <c r="P9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y9">
         <f>(H9-G9)*24</f>
@@ -1945,67 +1948,67 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10">
         <v>0.056</v>
       </c>
       <c r="P10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y10">
         <f>(H10-G10)*24</f>
@@ -2022,67 +2025,67 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M11">
         <v>5.253</v>
       </c>
       <c r="P11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11">
         <f>(H11-G11)*24</f>
@@ -2099,67 +2102,67 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M12">
         <v>190.241</v>
       </c>
       <c r="P12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y12">
         <f>(H12-G12)*24</f>
@@ -2176,67 +2179,67 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13">
         <v>0.066</v>
       </c>
       <c r="P13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13">
         <f>(H13-G13)*24</f>
@@ -2253,67 +2256,67 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M14">
         <v>0.613</v>
       </c>
       <c r="P14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y14">
         <f>(H14-G14)*24</f>
@@ -2330,67 +2333,67 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15">
         <v>17522.796</v>
       </c>
       <c r="P15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y15">
         <f>(H15-G15)*24</f>
@@ -2407,67 +2410,67 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M16">
         <v>32.726</v>
       </c>
       <c r="P16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y16">
         <f>(H16-G16)*24</f>
@@ -2484,67 +2487,67 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M17">
         <v>1160</v>
       </c>
       <c r="P17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y17">
         <f>(H17-G17)*24</f>
@@ -2561,67 +2564,67 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18">
         <v>16</v>
       </c>
       <c r="P18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y18">
         <f>(H18-G18)*24</f>
@@ -2638,67 +2641,67 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M19">
         <v>47</v>
       </c>
       <c r="P19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y19">
         <f>(H19-G19)*24</f>
@@ -2715,67 +2718,67 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M20">
         <v>135.3</v>
       </c>
       <c r="P20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y20">
         <f>(H20-G20)*24</f>
@@ -2792,67 +2795,67 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21">
         <v>1477</v>
       </c>
       <c r="P21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y21">
         <f>(H21-G21)*24</f>
@@ -2869,67 +2872,67 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F22">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M22">
         <v>872</v>
       </c>
       <c r="P22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q22">
         <v>500</v>
       </c>
       <c r="R22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y22">
         <f>(H22-G22)*24</f>
@@ -2946,67 +2949,67 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F23">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M23">
         <v>28.37</v>
       </c>
       <c r="P23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q23">
         <v>26.28</v>
       </c>
       <c r="R23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y23">
         <f>(H23-G23)*24</f>
@@ -3023,67 +3026,67 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M24">
         <v>4.93</v>
       </c>
       <c r="P24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q24">
         <v>5.25</v>
       </c>
       <c r="R24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y24">
         <f>(H24-G24)*24</f>
@@ -3100,67 +3103,67 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M25">
         <v>0.43</v>
       </c>
       <c r="P25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q25">
         <v>0.32</v>
       </c>
       <c r="R25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y25">
         <f>(H25-G25)*24</f>
@@ -3177,67 +3180,67 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M26">
         <v>94.06</v>
       </c>
       <c r="P26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q26">
         <v>364.28</v>
       </c>
       <c r="R26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y26">
         <f>(H26-G26)*24</f>
@@ -3254,67 +3257,67 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F27">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M27">
         <v>49.57</v>
       </c>
       <c r="P27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q27">
         <v>476.58</v>
       </c>
       <c r="R27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y27">
         <f>(H27-G27)*24</f>
@@ -3331,67 +3334,67 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F28">
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28">
         <v>18.46</v>
       </c>
       <c r="P28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q28">
         <v>71.48999999999999</v>
       </c>
       <c r="R28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y28">
         <f>(H28-G28)*24</f>
@@ -3408,67 +3411,67 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M29">
         <v>18.23</v>
       </c>
       <c r="P29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q29">
         <v>476.58</v>
       </c>
       <c r="R29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y29">
         <f>(H29-G29)*24</f>
@@ -3485,67 +3488,67 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M30">
         <v>10.33</v>
       </c>
       <c r="P30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q30">
         <v>476.58</v>
       </c>
       <c r="R30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y30">
         <f>(H30-G30)*24</f>
@@ -3562,67 +3565,67 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F31">
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M31">
         <v>1.03</v>
       </c>
       <c r="P31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q31">
         <v>416.5</v>
       </c>
       <c r="R31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y31">
         <f>(H31-G31)*24</f>
@@ -3639,67 +3642,67 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F32">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M32">
         <v>1.31</v>
       </c>
       <c r="P32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q32">
         <v>416.5</v>
       </c>
       <c r="R32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y32">
         <f>(H32-G32)*24</f>
@@ -3716,67 +3719,67 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F33">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M33">
         <v>2096.35</v>
       </c>
       <c r="P33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q33">
         <v>362.11</v>
       </c>
       <c r="R33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y33">
         <f>(H33-G33)*24</f>
@@ -3793,67 +3796,67 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F34">
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M34">
         <v>1611.44</v>
       </c>
       <c r="P34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q34">
         <v>416.5</v>
       </c>
       <c r="R34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y34">
         <f>(H34-G34)*24</f>
@@ -3870,67 +3873,67 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F35">
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M35">
         <v>296.33</v>
       </c>
       <c r="P35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q35">
         <v>90.68000000000001</v>
       </c>
       <c r="R35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y35">
         <f>(H35-G35)*24</f>
@@ -3947,67 +3950,67 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F36">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M36">
         <v>8.92</v>
       </c>
       <c r="P36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q36">
         <v>416.5</v>
       </c>
       <c r="R36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y36">
         <f>(H36-G36)*24</f>
@@ -4024,67 +4027,67 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F37">
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M37">
         <v>30.61</v>
       </c>
       <c r="P37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q37">
         <v>416.5</v>
       </c>
       <c r="R37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y37">
         <f>(H37-G37)*24</f>
@@ -4101,64 +4104,64 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M38">
         <v>548</v>
       </c>
       <c r="P38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y38">
         <f>(H38-G38)*24</f>
@@ -4175,64 +4178,64 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F39">
         <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M39">
         <v>16</v>
       </c>
       <c r="P39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y39">
         <f>(H39-G39)*24</f>
@@ -4249,64 +4252,64 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M40">
         <v>766</v>
       </c>
       <c r="P40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y40">
         <f>(H40-G40)*24</f>
@@ -4323,64 +4326,64 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M41">
         <v>64</v>
       </c>
       <c r="P41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y41">
         <f>(H41-G41)*24</f>
@@ -4397,64 +4400,64 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M42">
         <v>1477</v>
       </c>
       <c r="P42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y42">
         <f>(H42-G42)*24</f>
@@ -4471,67 +4474,67 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F43">
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M43">
         <v>5.67</v>
       </c>
       <c r="P43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q43">
         <v>10</v>
       </c>
       <c r="R43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y43">
         <f>(H43-G43)*24</f>
@@ -4548,67 +4551,67 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F44">
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M44">
         <v>777.62</v>
       </c>
       <c r="P44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q44">
         <v>5000</v>
       </c>
       <c r="R44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y44">
         <f>(H44-G44)*24</f>
@@ -4625,67 +4628,67 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F45">
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M45">
         <v>2508.68</v>
       </c>
       <c r="P45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q45">
         <v>5000</v>
       </c>
       <c r="R45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y45">
         <f>(H45-G45)*24</f>
@@ -4702,67 +4705,67 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F46">
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M46">
         <v>18.67</v>
       </c>
       <c r="P46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q46">
         <v>1000</v>
       </c>
       <c r="R46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y46">
         <f>(H46-G46)*24</f>
@@ -4779,67 +4782,67 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F47">
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M47">
         <v>5.79</v>
       </c>
       <c r="P47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q47">
         <v>5000</v>
       </c>
       <c r="R47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y47">
         <f>(H47-G47)*24</f>
@@ -4856,67 +4859,67 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F48">
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M48">
         <v>0.42</v>
       </c>
       <c r="P48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q48">
         <v>1000</v>
       </c>
       <c r="R48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y48">
         <f>(H48-G48)*24</f>
@@ -4933,67 +4936,67 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F49">
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M49">
         <v>43.11</v>
       </c>
       <c r="P49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q49">
         <v>5000</v>
       </c>
       <c r="R49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y49">
         <f>(H49-G49)*24</f>
@@ -5010,67 +5013,67 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F50">
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50">
         <v>75.54000000000001</v>
       </c>
       <c r="P50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q50">
         <v>5000</v>
       </c>
       <c r="R50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y50">
         <f>(H50-G50)*24</f>
@@ -5087,67 +5090,67 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F51">
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M51">
         <v>4.8</v>
       </c>
       <c r="P51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q51">
         <v>5000</v>
       </c>
       <c r="R51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y51">
         <f>(H51-G51)*24</f>
@@ -5164,67 +5167,67 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F52">
         <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M52">
         <v>17.76</v>
       </c>
       <c r="P52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q52">
         <v>5000</v>
       </c>
       <c r="R52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y52">
         <f>(H52-G52)*24</f>
@@ -5241,67 +5244,67 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F53">
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M53">
         <v>1256.62</v>
       </c>
       <c r="P53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q53">
         <v>5000</v>
       </c>
       <c r="R53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y53">
         <f>(H53-G53)*24</f>
@@ -5318,67 +5321,67 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F54">
         <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M54">
         <v>317.63</v>
       </c>
       <c r="P54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q54">
         <v>5000</v>
       </c>
       <c r="R54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y54">
         <f>(H54-G54)*24</f>
@@ -5395,67 +5398,67 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F55">
         <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M55">
         <v>1380.27</v>
       </c>
       <c r="P55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q55">
         <v>5000</v>
       </c>
       <c r="R55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y55">
         <f>(H55-G55)*24</f>
@@ -5472,67 +5475,67 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F56">
         <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M56">
         <v>6.05</v>
       </c>
       <c r="P56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q56">
         <v>1000</v>
       </c>
       <c r="R56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y56">
         <f>(H56-G56)*24</f>
@@ -5549,67 +5552,67 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F57">
         <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M57">
         <v>1.25</v>
       </c>
       <c r="P57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q57">
         <v>100</v>
       </c>
       <c r="R57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y57">
         <f>(H57-G57)*24</f>
@@ -5626,67 +5629,67 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F58">
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M58">
         <v>6.79</v>
       </c>
       <c r="P58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q58">
         <v>10</v>
       </c>
       <c r="R58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y58">
         <f>(H58-G58)*24</f>
@@ -5703,67 +5706,67 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F59">
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M59">
         <v>930.9400000000001</v>
       </c>
       <c r="P59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q59">
         <v>5000</v>
       </c>
       <c r="R59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y59">
         <f>(H59-G59)*24</f>
@@ -5780,67 +5783,67 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F60">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M60">
         <v>4485.08</v>
       </c>
       <c r="P60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q60">
         <v>5000</v>
       </c>
       <c r="R60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y60">
         <f>(H60-G60)*24</f>
@@ -5857,67 +5860,67 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F61">
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K61" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M61">
         <v>22.35</v>
       </c>
       <c r="P61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q61">
         <v>1000</v>
       </c>
       <c r="R61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y61">
         <f>(H61-G61)*24</f>
@@ -5934,67 +5937,67 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F62">
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M62">
         <v>6.92</v>
       </c>
       <c r="P62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q62">
         <v>5000</v>
       </c>
       <c r="R62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y62">
         <f>(H62-G62)*24</f>
@@ -6011,67 +6014,67 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F63">
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M63">
         <v>0.5</v>
       </c>
       <c r="P63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q63">
         <v>1000</v>
       </c>
       <c r="R63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y63">
         <f>(H63-G63)*24</f>
@@ -6088,67 +6091,67 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F64">
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J64" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M64">
         <v>51.61</v>
       </c>
       <c r="P64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q64">
         <v>5000</v>
       </c>
       <c r="R64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S64" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y64">
         <f>(H64-G64)*24</f>
@@ -6165,67 +6168,67 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F65">
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M65">
         <v>89.23999999999999</v>
       </c>
       <c r="P65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q65">
         <v>5000</v>
       </c>
       <c r="R65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y65">
         <f>(H65-G65)*24</f>
@@ -6242,67 +6245,67 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F66">
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M66">
         <v>5.74</v>
       </c>
       <c r="P66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q66">
         <v>5000</v>
       </c>
       <c r="R66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U66" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W66" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y66">
         <f>(H66-G66)*24</f>
@@ -6319,67 +6322,67 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F67">
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M67">
         <v>21.26</v>
       </c>
       <c r="P67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q67">
         <v>5000</v>
       </c>
       <c r="R67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y67">
         <f>(H67-G67)*24</f>
@@ -6396,67 +6399,67 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F68">
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M68">
         <v>1677.21</v>
       </c>
       <c r="P68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q68">
         <v>5000</v>
       </c>
       <c r="R68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y68">
         <f>(H68-G68)*24</f>
@@ -6473,67 +6476,67 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F69">
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M69">
         <v>380.26</v>
       </c>
       <c r="P69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q69">
         <v>5000</v>
       </c>
       <c r="R69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X69" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y69">
         <f>(H69-G69)*24</f>
@@ -6550,67 +6553,67 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F70">
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M70">
         <v>1654.37</v>
       </c>
       <c r="P70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q70">
         <v>5000</v>
       </c>
       <c r="R70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y70">
         <f>(H70-G70)*24</f>
@@ -6627,67 +6630,67 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F71">
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M71">
         <v>7.24</v>
       </c>
       <c r="P71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q71">
         <v>1000</v>
       </c>
       <c r="R71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V71" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y71">
         <f>(H71-G71)*24</f>
@@ -6704,67 +6707,67 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F72">
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J72" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M72">
         <v>1.5</v>
       </c>
       <c r="P72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q72">
         <v>100</v>
       </c>
       <c r="R72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W72" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y72">
         <f>(H72-G72)*24</f>
@@ -6781,67 +6784,67 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F73">
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M73">
         <v>0.6</v>
       </c>
       <c r="P73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q73">
         <v>0</v>
       </c>
       <c r="R73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="V73" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y73">
         <f>(H73-G73)*24</f>
@@ -6858,67 +6861,67 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F74">
         <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M74">
         <v>32819.82</v>
       </c>
       <c r="P74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S74" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="V74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y74">
         <f>(H74-G74)*24</f>
@@ -6935,64 +6938,64 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F75">
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M75">
         <v>12</v>
       </c>
       <c r="P75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="W75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y75">
         <f>(H75-G75)*24</f>
@@ -7009,64 +7012,64 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F76">
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M76">
         <v>12.1</v>
       </c>
       <c r="P76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
       <c r="R76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="W76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y76">
         <f>(H76-G76)*24</f>
@@ -7083,64 +7086,64 @@
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C77" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F77">
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H77" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M77">
         <v>38</v>
       </c>
       <c r="P77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q77">
         <v>0</v>
       </c>
       <c r="R77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S77" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="W77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y77">
         <f>(H77-G77)*24</f>
@@ -7157,64 +7160,64 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E78" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F78">
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M78">
         <v>6.2</v>
       </c>
       <c r="P78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q78">
         <v>0</v>
       </c>
       <c r="R78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U78" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="W78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y78">
         <f>(H78-G78)*24</f>
@@ -7231,64 +7234,64 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E79" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F79">
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H79" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J79" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M79">
         <v>1117</v>
       </c>
       <c r="P79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q79">
         <v>0</v>
       </c>
       <c r="R79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S79" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V79" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="W79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y79">
         <f>(H79-G79)*24</f>
@@ -7305,64 +7308,64 @@
     </row>
     <row r="80" spans="1:27">
       <c r="A80" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F80">
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J80" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M80">
         <v>73</v>
       </c>
       <c r="P80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y80">
         <f>(H80-G80)*24</f>
@@ -7379,64 +7382,64 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F81">
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J81" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M81">
         <v>23</v>
       </c>
       <c r="P81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U81" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W81" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y81">
         <f>(H81-G81)*24</f>
@@ -7453,64 +7456,64 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F82">
         <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H82" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M82">
         <v>93</v>
       </c>
       <c r="P82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q82">
         <v>0</v>
       </c>
       <c r="R82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U82" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y82">
         <f>(H82-G82)*24</f>
@@ -7527,64 +7530,64 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F83">
         <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J83" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M83">
         <v>36.4</v>
       </c>
       <c r="P83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S83" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X83" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y83">
         <f>(H83-G83)*24</f>
@@ -7601,64 +7604,64 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F84">
         <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J84" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M84">
         <v>2117</v>
       </c>
       <c r="P84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V84" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y84">
         <f>(H84-G84)*24</f>
@@ -7675,67 +7678,67 @@
     </row>
     <row r="85" spans="1:27">
       <c r="A85" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E85" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F85">
         <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M85">
         <v>7179.48</v>
       </c>
       <c r="P85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V85" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="W85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y85">
         <f>(H85-G85)*24</f>
@@ -7752,67 +7755,67 @@
     </row>
     <row r="86" spans="1:27">
       <c r="A86" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F86">
         <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J86" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M86">
         <v>0.32</v>
       </c>
       <c r="P86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q86">
         <v>0</v>
       </c>
       <c r="R86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="W86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y86">
         <f>(H86-G86)*24</f>
@@ -7829,67 +7832,67 @@
     </row>
     <row r="87" spans="1:27">
       <c r="A87" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F87">
         <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H87" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K87" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M87">
         <v>104.55</v>
       </c>
       <c r="P87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V87" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="W87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y87">
         <f>(H87-G87)*24</f>
@@ -7906,67 +7909,67 @@
     </row>
     <row r="88" spans="1:27">
       <c r="A88" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F88">
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J88" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M88">
         <v>899.0599999999999</v>
       </c>
       <c r="P88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U88" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="W88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y88">
         <f>(H88-G88)*24</f>
@@ -7983,67 +7986,67 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F89">
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K89" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M89">
         <v>2697.19</v>
       </c>
       <c r="P89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q89">
         <v>0</v>
       </c>
       <c r="R89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="W89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y89">
         <f>(H89-G89)*24</f>
@@ -8060,67 +8063,67 @@
     </row>
     <row r="90" spans="1:27">
       <c r="A90" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F90">
         <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K90" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M90">
         <v>29.6</v>
       </c>
       <c r="P90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="W90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y90">
         <f>(H90-G90)*24</f>
@@ -8137,67 +8140,67 @@
     </row>
     <row r="91" spans="1:27">
       <c r="A91" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C91" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F91">
         <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J91" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K91" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M91">
         <v>1733.86</v>
       </c>
       <c r="P91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="U91" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="V91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="W91" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y91">
         <f>(H91-G91)*24</f>
@@ -8214,67 +8217,67 @@
     </row>
     <row r="92" spans="1:27">
       <c r="A92" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D92" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F92">
         <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J92" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K92" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L92" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M92">
         <v>24422.97</v>
       </c>
       <c r="P92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="U92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="V92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="W92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y92">
         <f>(H92-G92)*24</f>
@@ -8291,67 +8294,67 @@
     </row>
     <row r="93" spans="1:27">
       <c r="A93" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F93">
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H93" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K93" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M93">
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q93">
         <v>194.35</v>
       </c>
       <c r="R93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S93" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U93" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V93" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X93" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y93">
         <f>(H93-G93)*24</f>
@@ -8368,67 +8371,67 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D94" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F94">
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K94" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M94">
         <v>37</v>
       </c>
       <c r="P94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q94">
         <v>194.35</v>
       </c>
       <c r="R94" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S94" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U94" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V94" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W94" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y94">
         <f>(H94-G94)*24</f>
@@ -8445,67 +8448,67 @@
     </row>
     <row r="95" spans="1:27">
       <c r="A95" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F95">
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H95" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J95" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K95" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L95" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M95">
         <v>21</v>
       </c>
       <c r="P95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q95">
         <v>194.35</v>
       </c>
       <c r="R95" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U95" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V95" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W95" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X95" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y95">
         <f>(H95-G95)*24</f>
@@ -8522,67 +8525,67 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F96">
         <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J96" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K96" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M96">
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q96">
         <v>156.45</v>
       </c>
       <c r="R96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U96" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V96" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W96" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X96" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y96">
         <f>(H96-G96)*24</f>
@@ -8599,67 +8602,67 @@
     </row>
     <row r="97" spans="1:27">
       <c r="A97" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F97">
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H97" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K97" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L97" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M97">
         <v>2.5</v>
       </c>
       <c r="P97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q97">
         <v>194.35</v>
       </c>
       <c r="R97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S97" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U97" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V97" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y97">
         <f>(H97-G97)*24</f>
@@ -8676,67 +8679,67 @@
     </row>
     <row r="98" spans="1:27">
       <c r="A98" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F98">
         <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q98">
         <v>194.35</v>
       </c>
       <c r="R98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U98" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V98" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W98" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y98">
         <f>(H98-G98)*24</f>
@@ -8753,67 +8756,67 @@
     </row>
     <row r="99" spans="1:27">
       <c r="A99" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F99">
         <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M99">
         <v>50</v>
       </c>
       <c r="P99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q99">
         <v>194.35</v>
       </c>
       <c r="R99" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U99" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V99" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W99" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X99" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y99">
         <f>(H99-G99)*24</f>
@@ -8830,67 +8833,67 @@
     </row>
     <row r="100" spans="1:27">
       <c r="A100" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F100">
         <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H100" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M100">
         <v>44</v>
       </c>
       <c r="P100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q100">
         <v>194.35</v>
       </c>
       <c r="R100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V100" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W100" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X100" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y100">
         <f>(H100-G100)*24</f>
@@ -8907,67 +8910,67 @@
     </row>
     <row r="101" spans="1:27">
       <c r="A101" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D101" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F101">
         <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J101" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M101">
         <v>17</v>
       </c>
       <c r="P101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q101">
         <v>30.7</v>
       </c>
       <c r="R101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W101" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y101">
         <f>(H101-G101)*24</f>
@@ -8984,67 +8987,67 @@
     </row>
     <row r="102" spans="1:27">
       <c r="A102" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F102">
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L102" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M102">
         <v>9.5</v>
       </c>
       <c r="P102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q102">
         <v>194.35</v>
       </c>
       <c r="R102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W102" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X102" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y102">
         <f>(H102-G102)*24</f>
@@ -9061,67 +9064,67 @@
     </row>
     <row r="103" spans="1:27">
       <c r="A103" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F103">
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K103" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L103" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M103">
         <v>4</v>
       </c>
       <c r="P103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q103">
         <v>194.35</v>
       </c>
       <c r="R103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U103" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W103" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X103" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y103">
         <f>(H103-G103)*24</f>
@@ -9138,67 +9141,67 @@
     </row>
     <row r="104" spans="1:27">
       <c r="A104" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C104" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D104" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F104">
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H104" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K104" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M104">
         <v>2</v>
       </c>
       <c r="P104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q104">
         <v>194.35</v>
       </c>
       <c r="R104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S104" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U104" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V104" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W104" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X104" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y104">
         <f>(H104-G104)*24</f>
@@ -9215,67 +9218,67 @@
     </row>
     <row r="105" spans="1:27">
       <c r="A105" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C105" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D105" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F105">
         <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H105" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J105" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K105" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M105">
         <v>0.19</v>
       </c>
       <c r="P105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q105">
         <v>0.01</v>
       </c>
       <c r="R105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X105" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y105">
         <f>(H105-G105)*24</f>
@@ -9292,67 +9295,67 @@
     </row>
     <row r="106" spans="1:27">
       <c r="A106" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C106" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F106">
         <v>12</v>
       </c>
       <c r="G106" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K106" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M106">
         <v>29</v>
       </c>
       <c r="P106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q106">
         <v>194.35</v>
       </c>
       <c r="R106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W106" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y106">
         <f>(H106-G106)*24</f>
@@ -9369,67 +9372,67 @@
     </row>
     <row r="107" spans="1:27">
       <c r="A107" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B107" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D107" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E107" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F107">
         <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H107" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I107" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J107" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L107" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M107">
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>0</v>
       </c>
       <c r="R107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U107" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V107" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W107" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X107" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y107">
         <f>(H107-G107)*24</f>
@@ -9446,67 +9449,67 @@
     </row>
     <row r="108" spans="1:27">
       <c r="A108" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B108" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D108" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E108" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F108">
         <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H108" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I108" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M108">
         <v>19478.07</v>
       </c>
       <c r="P108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q108">
         <v>0</v>
       </c>
       <c r="R108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S108" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U108" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V108" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W108" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X108" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y108">
         <f>(H108-G108)*24</f>
@@ -9523,67 +9526,67 @@
     </row>
     <row r="109" spans="1:27">
       <c r="A109" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B109" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C109" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D109" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E109" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F109">
         <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H109" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I109" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M109">
         <v>0.06</v>
       </c>
       <c r="P109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q109">
         <v>0</v>
       </c>
       <c r="R109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S109" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U109" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V109" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W109" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X109" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y109">
         <f>(H109-G109)*24</f>
@@ -9600,67 +9603,67 @@
     </row>
     <row r="110" spans="1:27">
       <c r="A110" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B110" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C110" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E110" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F110">
         <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I110" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J110" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K110" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L110" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M110">
         <v>6362.9</v>
       </c>
       <c r="P110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q110">
         <v>0</v>
       </c>
       <c r="R110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U110" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V110" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W110" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X110" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y110">
         <f>(H110-G110)*24</f>
@@ -9677,67 +9680,67 @@
     </row>
     <row r="111" spans="1:27">
       <c r="A111" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C111" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D111" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E111" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F111">
         <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J111" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K111" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M111">
         <v>2439.18</v>
       </c>
       <c r="P111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q111">
         <v>0</v>
       </c>
       <c r="R111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S111" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U111" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V111" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W111" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X111" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y111">
         <f>(H111-G111)*24</f>
@@ -9754,67 +9757,67 @@
     </row>
     <row r="112" spans="1:27">
       <c r="A112" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C112" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D112" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E112" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F112">
         <v>7</v>
       </c>
       <c r="G112" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I112" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J112" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K112" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M112">
         <v>7317.53</v>
       </c>
       <c r="P112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q112">
         <v>0</v>
       </c>
       <c r="R112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S112" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U112" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V112" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W112" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X112" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y112">
         <f>(H112-G112)*24</f>
@@ -9831,67 +9834,67 @@
     </row>
     <row r="113" spans="1:27">
       <c r="A113" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C113" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D113" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E113" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F113">
         <v>7</v>
       </c>
       <c r="G113" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H113" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J113" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K113" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L113" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M113">
         <v>5.16</v>
       </c>
       <c r="P113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q113">
         <v>0</v>
       </c>
       <c r="R113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S113" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U113" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V113" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W113" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X113" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y113">
         <f>(H113-G113)*24</f>
@@ -9908,67 +9911,67 @@
     </row>
     <row r="114" spans="1:27">
       <c r="A114" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B114" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C114" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D114" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E114" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F114">
         <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H114" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I114" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J114" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L114" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M114">
         <v>0.001</v>
       </c>
       <c r="P114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S114" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U114" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="V114" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W114" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="X114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y114">
         <f>(H114-G114)*24</f>
@@ -10105,170 +10108,241 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A2,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="F2">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A2,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A3,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="F3">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A3,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A4,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="F4">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A4,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A5,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="F5">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A5,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A6,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="F6">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A6,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A7,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="F7">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A7,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A8,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="F8">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A8,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A9,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="F9">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A9,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B10">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A10,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="F10">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A10,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A11,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="F11">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A11,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B12">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A12,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="F12">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A12,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B13">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A13,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="F13">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A13,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B14">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A14,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="F14">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A14,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B15">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A15,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="F15">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A15,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B16">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A16,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="F16">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A16,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B17">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A17,Cases!M:M)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="F17">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A17,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B18">
         <f>SUMIF(Cases!A:A,'Incident Sums'!A18,Cases!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A18,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
         <v>0</v>
       </c>
     </row>

--- a/TCEQ_Data.xlsx
+++ b/TCEQ_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="208">
   <si>
     <t>INCIDENT NO.</t>
   </si>
@@ -101,61 +101,544 @@
     <t>INCIDENT SUM(POUNDS)</t>
   </si>
   <si>
+    <t>Carbon Monoxide</t>
+  </si>
+  <si>
+    <t>POUNDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PBR</t>
+  </si>
+  <si>
+    <t>Non-Methane Non-Ethane Natural Gas</t>
+  </si>
+  <si>
+    <t>Oxides of Nitrogen (NOx)</t>
+  </si>
+  <si>
+    <t>351262</t>
+  </si>
+  <si>
+    <t>RN110890746</t>
+  </si>
+  <si>
+    <t>BB KING CTB</t>
+  </si>
+  <si>
+    <t>FROM BIG SPRING INTX GREGG ST/W 4TH ST, GO N ON GREGG ST 1.2MI. TURN L ON I-20 FRONTAGE RD, STAY R FOR 0.7MI. BEAR R ON TX-176 W/ANDREWS HWY, GO 8.7MI. TURN R, GO 1.35MI. BEAR R, GO 0.33MI. TURN R, GO 1.07MI. TURN L, GO 0.8MI. TURN L, GO 0.2MI.</t>
+  </si>
+  <si>
+    <t>HOWARD</t>
+  </si>
+  <si>
+    <t>02/03/2021 20:30</t>
+  </si>
+  <si>
+    <t>02/04/2021 15:00</t>
+  </si>
+  <si>
+    <t>EMISSIONS EVENT</t>
+  </si>
+  <si>
+    <t>Emergency Flare</t>
+  </si>
+  <si>
+    <t>FL-1</t>
+  </si>
+  <si>
+    <t>High gas sales line pressure</t>
+  </si>
+  <si>
+    <t>To prevent vessel over pressure, gas was routed to flare.</t>
+  </si>
+  <si>
+    <t>Onsite gas meters</t>
+  </si>
+  <si>
+    <t>02/23/2021 04:50 PM</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>NRSP 135396</t>
+  </si>
+  <si>
+    <t>Butane</t>
+  </si>
+  <si>
+    <t>Cyclohexane</t>
+  </si>
+  <si>
+    <t>decane</t>
+  </si>
+  <si>
+    <t>Ethylbenzene</t>
+  </si>
+  <si>
+    <t>Heptane (or n-)</t>
+  </si>
+  <si>
+    <t>Hexane</t>
+  </si>
+  <si>
+    <t>Nonane</t>
+  </si>
+  <si>
+    <t>Octane</t>
+  </si>
+  <si>
+    <t>Pentane</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>Xylene (mixed isomers)</t>
+  </si>
+  <si>
+    <t>Decanes/C10 Hydrocarbons</t>
+  </si>
+  <si>
+    <t>Xylene</t>
+  </si>
+  <si>
+    <t>349974</t>
+  </si>
+  <si>
+    <t>RN108740143</t>
+  </si>
+  <si>
+    <t>BUFFALO GAS PLANT</t>
+  </si>
+  <si>
+    <t>FROM STANTON, TEXAS: FOLLOW I-20 WEST FOR APPROXIMATELY 5.5 MILES, THEN HEAD NORTH ON COUNTY ROAD 3001/FM829. FOLLOW FM829 FOR APPROXIMATELY 3.5 MILES, THEN TURN LEFT ONTO FM1212. FOLLOW FM1212 FOR APPROXIMATELY 12.2 MILES. THE SITE WILL BE ON THE LEFT.</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>02/03/2021 12:35</t>
+  </si>
+  <si>
+    <t>02/03/2021 19:40</t>
+  </si>
+  <si>
+    <t>Flare-1</t>
+  </si>
+  <si>
+    <t>Flare-2</t>
+  </si>
+  <si>
+    <t>An unexpected high liquids level caused an ESD shutting down all compression. This caused inlet and residue gas to be routed to EPN Flare-2 and inlet gas to EPN Flare-1.</t>
+  </si>
+  <si>
+    <t>Inlet gas was routed to other Targa plants as possible to help minimize the event. The liquid levels were lowered as quickly as possible and the compressors were restarted ending the emissions event.</t>
+  </si>
+  <si>
+    <t>Targa Pipeline Mid-Continent WestTex utilizes a Microsoft Excel Spreadsheet to calculate Upset/Maintenance Emissions. Up-to-Date representative gas analyses for each gas stream are maintained in the spreadsheet. Formulas Used in Reporting Table: SO2 Emissions (in Pounds) = Process Stream Volume(SCF)X(%H2S)X Mole Wt. SO2(64)/385.4616] X(.98) Hydrocarbon Emissions(in Pounds)= Process Stream Volume (SCF)X Mole% Component X Mole Weight of Component/385.4616]X(1-%DRE) NOx Emissions(in pounds)= Total Heating Value of Process Stream Flared MMBtu X 0.138 (or 0.0641) lb/MMBtu NO/NO2 ratio 95/5%</t>
+  </si>
+  <si>
+    <t>02/04/2021 12:09 PM</t>
+  </si>
+  <si>
     <t>Hydrogen Sulfide</t>
   </si>
   <si>
-    <t>UNKNOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>standard exemption</t>
-  </si>
-  <si>
-    <t>Non-Methane Non-Ethane Natural Gas</t>
-  </si>
-  <si>
-    <t>Standard Exemption</t>
-  </si>
-  <si>
-    <t>341599</t>
-  </si>
-  <si>
-    <t>RN102422326</t>
-  </si>
-  <si>
-    <t>NORTH COWDEN UNIT SATELLITE 18</t>
-  </si>
-  <si>
-    <t>T S 18 IS ON N COWDEN RD 0.7M S INTX 158 T R 0.6M LEASE RD</t>
+    <t>NRSP 153854</t>
+  </si>
+  <si>
+    <t>NATURAL GAS</t>
+  </si>
+  <si>
+    <t>349973</t>
+  </si>
+  <si>
+    <t>RN100210590</t>
+  </si>
+  <si>
+    <t>E-LINE BOOSTER STATION</t>
+  </si>
+  <si>
+    <t>: FROM THE INTX OF US 67 AND TX 137 GO E ON US 67 FOR 14 MI GO R ON FM 1555 FOR 9.7 MI GO R ON ELLIOTT RD FOR 174 FT GO R ON LEASE RD AND GO 1.5 MI TO SITE ON THE R</t>
+  </si>
+  <si>
+    <t>UPTON</t>
+  </si>
+  <si>
+    <t>02/03/2021 15:49</t>
+  </si>
+  <si>
+    <t>02/04/2021 22:01</t>
+  </si>
+  <si>
+    <t>Upset Vent</t>
+  </si>
+  <si>
+    <t>VNT-1</t>
+  </si>
+  <si>
+    <t>Intermittent venting occurred at E-Line BS over a period of two days as a result of a series of events. The venting began when compressor unit #4 shut down on low compressor oil pressure and from a malfunctioning cylinder #1. Also contributing to this event was an upstream compressor station shutting down. This caused additional field gas to be routed to the E-Line Booster Station above its operating capacity. Compressor unit #4 shutdown on low compressor oil pressure and compressor unit #2 shutdown on low suction pressure. Venting occurred for 30 hours and 12 minutes out of a 32 hour and 5-minute period.</t>
+  </si>
+  <si>
+    <t>The rental unit mechanics were called on site early into this event to begin working on unit #4’s malfunctioning cylinder. The mechanics remained on site making adjustments to both units #4 and #2 in an effort to maintain stable operations. It was determined that once unit #4 cylinder was repaired; fuel pressure fluctuations at the station caused the shutdowns that occurred the second day of the event. Once E Line compression was operating and the upstream station was returned to service and field pipeline pressures normalized, venting ended.</t>
+  </si>
+  <si>
+    <t>Venting emissions based upon metered gas volume, gas analysis, and event duration. Calculations based upon TCEQ guidance document known as RG-109.</t>
+  </si>
+  <si>
+    <t>02/04/2021 11:49 AM</t>
+  </si>
+  <si>
+    <t>PBR 106.352 Registration</t>
+  </si>
+  <si>
+    <t>Sulfur dioxide</t>
+  </si>
+  <si>
+    <t>349954</t>
+  </si>
+  <si>
+    <t>RN102199759</t>
+  </si>
+  <si>
+    <t>RHODES COWDEN UNIT CENTRAL BATTERY</t>
+  </si>
+  <si>
+    <t>FROM ODESSA GO W FOR ABOUT 4 MI ON HWY 302 TURN R OR N ON HWY 1936 CONTINUE 5 MI TURN R OR E ON YT RD CONTINUE 0.6 MI TO THE BATTERY WHICH IS ON THE S SIDE OF THE RD THROUGH A CATTLE GUARD</t>
   </si>
   <si>
     <t>ECTOR</t>
   </si>
   <si>
-    <t>08/31/2020 18:00</t>
-  </si>
-  <si>
-    <t>09/03/2020 14:30</t>
-  </si>
-  <si>
-    <t>EMISSIONS EVENT</t>
-  </si>
-  <si>
-    <t>Emergency vent</t>
-  </si>
-  <si>
-    <t>DCP line leak Did not reach a reportable quantity - UML0</t>
-  </si>
-  <si>
-    <t>We are venting our gas until the issue is resolved. Could not lite the flare due to hole in flare piping. Repair to flare piping was finished on 9-3 and flare was lit.</t>
-  </si>
-  <si>
-    <t>Total Vol Flared (MCF):133% H2S: 7.871 BTU / Cu Ft: 1,316.18 Emissions Calculations: NMNE NG = MCF vented x 50 lb/mole x mole/.379 MCF x mol % NMNE NG / 100 NMNE NG % = 100% - Methane % - Ethane % - Carbon Dioxide % - Nitrogen % - inert% H2S = MCF vented x 34 lb/mole x mole/.379 MCF x mol % H2S / 100 Volume is: Metered % NMNE: 28.53</t>
-  </si>
-  <si>
-    <t>09/01/2020 12:47 PM</t>
+    <t>02/03/2021 15:30</t>
+  </si>
+  <si>
+    <t>02/04/2021 9:30</t>
+  </si>
+  <si>
+    <t>EMERGENCY FLARE</t>
+  </si>
+  <si>
+    <t>The emissions event was caused by the sudden, unavoidable breakdown of equipment or process that was beyond the owner/operator's control, and did not stem from activity that could have been foreseen and avoided, and could not have been avoided by good design, operation, and maintenance practices. The emergency flaring event occurred due to a third-party, DCP, upset on February 3. DCP did not notify Operations that they had an upset with their equipment, but Operations noticed that the line pressure was backing up so they went to flare as a precautionary measure so that the VRUs would not shut down or create any atmospheric issues. Operations continued to monitor the DCP booster station and the batteries for a pressure drop to allow us to go back to sales. The flaring ceased as soon as the upset was over, and pressures dropped, and we returned to sales.</t>
+  </si>
+  <si>
+    <t>1. How many reportable and recordable emissions events (including this incident) have occurred at the facility/facilities contributing emissions during this incident for the 12-month period prior to this incident? The Rhodes Cowen Unit CB has experienced 23 reportable flares and 5 non-reportable flares between 02/4/2020 – 02/4/2021. 2. What were the facility/facilities total actual operating hours during the past 12 months? Between 2/10/2020 – 2/10/2021, this facility operated for 8760 hours and experienced both reportable and recordable upset events for 27.87% (2441 total hours) of the year. 3. Identify the cause or causes of the emissions event and include all contributing factors that led to the emissions event. Discuss how the emissions event could not have been avoided by good design, maintenance, and operation practices, if applicable. Discuss any sudden breakdown of equipment or process that was beyond the owner/operator’s control, if applicable. The emissions event was caused by the sudden, unavoidable breakdown of equipment or process that was beyond the owner/operator's control, and did not stem from activity that could have been foreseen and avoided, and could not have been avoided by good design, operation, and maintenance practices. The emergency flaring event occurred due to a third-party, DCP, upset on February 3. DCP did not notify Operations that they had an upset with their equipment, but Operations noticed that the line pressure was backing up so they went to flare as a precautionary measure so that the VRUs would not shut down or create any atmospheric issues. Operations continued to monitor the DCP booster station and the batteries for a pressure drop to allow us to go back to sales. The flaring ceased as soon as the upset was over, and pressures dropped, and we returned to sales. 4. How were the air pollution control equipment or processes (if any) maintained and operated in a manner consistent with good practice for minimizing emissions and reducing the number of emissions events? All air pollution control equipment or processes are operated and maintained in a manner consistent with good practice for minimizing emissions and reducing the number of reportable emissions events. At all times during this event, Oxy ensured that the gas was continuously flared. The emergency flare serves as a control device during periods of downtime associated with malfunction and maintenance/repair activities. The flaring ceased as soon as the third-party repairs were completed, and pressures returned to normal. 5. How soon was action taken to achieve compliance once the operator knew or should have known that applicable emission limitations were being exceeded? Immediately after operations was made aware that the DCP Gas Plant was receiving high oxygen levels, all gas at this facility was routed to the emergency flare, which is capable of achieving 98% combustion efficiency, greatly reducing emissions. The duration of the event was minimized by resuming normal operations after repairs were made to the third-party equipment and pressures returned to normal. 6. How were the amount and duration of the unauthorized emissions and any bypass of pollution control equipment minimized? Flaring was activated to reduce non-methane, non-ethane, natural gas and H2S. No pollution control equipment was by-passed during this event. All applicable reporting was made in timely manner to TCEQ onc e Oxy became aware that an RQ would be exceeded. The duration of the event was minimized by resuming normal operations after repairs were made to the third-party equipment and pressures returned to normal. The flaring ceased as soon as the repairs were completed. 7. What was the operational status of all emission monitoring systems at the facility/facilities during this emissions event? If any emission monitoring systems were not kept in operation during the emissions event, explain why they weren’t kept in operation. There are no emissions monitoring systems in place for this facility. The flared gas was metered, and the flare was continuously burning throughout the event. 8. How were the owner and or operator’s actions in response to the unauthorized emissions contemporaneously documented? Oxy’s response actions were documented in the Oxy incident database (SHER). Emission amounts were calculated using the equations below: i. Total Volume Flared = 36 MSCF ii. NOx Released = (MSCF) x (1,000 scf/MSCF) x (BTU/SCF) x (MMBTU/1,000,000 BTU) x (NOx factor from RG-109) = lbs. of NOx iii. CO Released = (MSCF) x (1,000 scf/MSCF) x (BTU/SCF) x (MMBTU/1,000,000 BTU) x (CO factor from RG-109) = lbs. of CO iv. SO2 Released = (MSCF) x (64 lb/mole) x (mole/0.379 MSCF) x (mole % H2S/100) x 0.98 = lbs. of SO2 v. VOC Released = (MSCF) x (50 lb/mole) x (mole/0.379 MSCF) x (mole% NMNE NG) x 0.02 = total lbs. of VOC vi. H2S Released = (MSCF) x (34 lb/mole) x (mole/ 0.379 MSCF) x (mole % H2S/100) x 0.02 = lbs. of H2S 9. Have other similar incidents occurred at this/these facility/facilities in the past that might be indicative of inadequate design, operation, or maintenance? No, similar incidents have not occurred at this facility that are indicative of inadequate design, operation or maintenance. 10. Identify any information you have (e.g., complaints from neighbors, fence line monitoring, air modeling) which indicates an off-site impact. Identify any information you have which indicates the unauthorized emissions caused or contributed to an exceedance of the national ambient air quality standard (NAAQS), a prevention of significant deterioration (PSD) increment, or to a condition of air pollution. No complaints have been received from neighbors and no fence line monitoring or modeling has been performed that would indicate contributing to an offsite impact, an exceedance of NAAQS or PSD increment, or to a condition of air pollution. 11. Do you have any additional information to support your claim of an affirmative defense? If yes, you must provide that information at this time to be considered. Not at this time.</t>
+  </si>
+  <si>
+    <t>i. Total Volume Flared = 36 MSCFii. NOx Released = (MSCF) x (1,000 scf/MSCF) x (BTU/SCF) x (MMBTU/1,000,000 BTU) x (NOx factor from RG-109) = lbs. of NOx iii. CO Released = (MSCF) x (1,000 scf/MSCF) x (BTU/SCF) x (MMBTU/1,000,000 BTU) x (CO factor from RG-109) = lbs. of CO iv. SO2 Released = (MSCF) x (64 lb/mole) x (mole/0.379 MSCF) x (mole % H2S/100) x 0.98 = lbs. of SO2 v. VOC Released = (MSCF) x (50 lb/mole) x (mole/0.379 MSCF) x (mole% NMNE NG) x 0.02 = total lbs. of VOC vi. H2S Released = (MSCF) x (34 lb/mole) x (mole/ 0.379 MSCF) x (mole % H2S/100) x 0.02 = lbs. of H2S</t>
+  </si>
+  <si>
+    <t>02/04/2021 07:38 AM</t>
+  </si>
+  <si>
+    <t>349953</t>
+  </si>
+  <si>
+    <t>RN102414307</t>
+  </si>
+  <si>
+    <t>JOHNSON GBSA UNIT CB</t>
+  </si>
+  <si>
+    <t>FROM INTX HIGHWAY 338 AND HIGHWAY 302 IN ODESSA GO NW ON HIGHWAY 302 FOR 3.4 MI TURN R AND GO N ON NW LAKE RD FOR 2.1 MI TURN LEFT AND GO W ON LEASE RD FOR 0.3 MI SITE ON R</t>
+  </si>
+  <si>
+    <t>02/03/2021 15:00</t>
+  </si>
+  <si>
+    <t>1. How many reportable and recordable emissions events (including this incident) have occurred at the facility/facilities contributing emissions during this incident for the 12-month period prior to this incident? The Johnson Gray CTB has experienced 13 reportable flares and 3 non-reportable flares between 02/4/2020 – 02/4/2021. 2. What were the facility/facilities total actual operating hours during the past 12 months? Between 2/8/2020 – 2/8/2021, this facility operated for 8760 hours and experienced both reportable and recordable upset events for 14.06% (1231 total hours) of the year. 3. Identify the cause or causes of the emissions event and include all contributing factors that led to the emissions event. Discuss how the emissions event could not have been avoided by good design, maintenance, and operation practices, if applicable. Discuss any sudden breakdown of equipment or process that was beyond the owner/operator’s control, if applicable. The emissions event was caused by the sudden, unavoidable breakdown of equipment or process that was beyond the owner/operator's control, and did not stem from activity that could have been foreseen and avoided, and could not have been avoided by good design, operation, and maintenance practices. The emergency flaring event occurred due to a third-party, DCP, upset on February 3. DCP did not notify Operations that they had an upset with their equipment, but Operations noticed that the line pressure was backing up so they went to flare as a precautionary measure so that the VRUs would not shut down or create any atmospheric issues. Operations continued to monitor the DCP booster station and the batteries for a pressure drop to allow us to go back to sales. The flaring ceased as soon as the upset was over, and pressures dropped, and we returned to sales. 4. How were the air pollution control equipment or processes (if any) maintained and operated in a manner consistent with good practice for minimizing emissions and reducing the number of emissions events? All air pollution control equipment or processes are operated and maintained in a manner consistent with good practice for minimizing emissions and reducing the number of reportable emissions events. At all times during this event, Oxy ensured that the gas was continuously flared. The emergency flare serves as a control device during periods of downtime associated with malfunction and maintenance/repair activities. The flaring ceased as soon as the third-party repairs were completed. 5. How soon was action taken to achieve compliance once the operator knew or should have known that applicable emission limitations were being exceeded? Immediately after operations was made aware that the DCP Gas Plant was receiving high oxygen levels, all gas at this facility was routed to the emergency flare, which is capable of achieving 98% combustion efficiency, greatly reducing emissions. The duration of the event was minimized by resuming normal operations after repairs were made to the third-party equipment. 6. How were the amount and duration of the unauthorized emissions and any bypass of pollution control equipment minimized? Flaring was activated to reduce non-methane, non-ethane, natural gas and H2S. No pollution control equipment was by-passed during this event. All applicable reporting was made in timely manner to TCEQ once Oxy became aware that an RQ would be exceeded. The duration of the even t was minimized by resuming normal operations after repairs were made to the third-party equipment. The flaring ceased as soon as the repairs were completed. 7. What was the operational status of all emission monitoring systems at the facility/facilities during this emissions event? If any emission monitoring systems were not kept in operation during the emissions event, explain why they weren’t kept in operation. There are no emissions monitoring systems in place for this facility. The flared gas was metered, and the flare was continuously burning throughout the event. 8. How were the owner and or operator’s actions in response to the unauthorized emissions contemporaneously documented? Oxy’s response actions were documented in the Oxy incident database (SHER). Emission amounts were calculated using the equations below: i. Total Volume Flared = 242.78 MSCF ii. NOx Released = (MSCF) x (1,000 scf/MSCF) x (BTU/SCF) x (MMBTU/1,000,000 BTU) x (NOx factor from RG-109) = lbs. of NOx iii. CO Released = (MSCF) x (1,000 scf/MSCF) x (BTU/SCF) x (MMBTU/1,000,000 BTU) x (CO factor from RG-109) = lbs. of CO iv. SO2 Released = (MSCF) x (64 lb/mole) x (mole/0.379 MSCF) x (mole % H2S/100) x 0.98 = lbs. of SO2 v. VOC Released = (MSCF) x (50 lb/mole) x (mole/0.379 MSCF) x (mole% NMNE NG) x 0.02 = total lbs. of VOC vi. H2S Released = (MSCF) x (34 lb/mole) x (mole/ 0.379 MSCF) x (mole % H2S/100) x 0.02 = lbs. of H2S 9. Have other similar incidents occurred at this/these facility/facilities in the past that might be indicative of inadequate design, operation, or maintenance? No, similar incidents have not occurred at this facility that are indicative of inadequate design, operation or maintenance. 10. Identify any information you have (e.g., complaints from neighbors, fence line monitoring, air modeling) which indicates an off-site impact. Identify any information you have which indicates the unauthorized emissions caused or contributed to an exceedance of the national ambient air quality standard (NAAQS), a prevention of significant deterioration (PSD) increment, or to a condition of air pollution. No complaints have been received from neighbors and no fence line monitoring or modeling has been performed that would indicate contributing to an offsite impact, an exceedance of NAAQS or PSD increment, or to a condition of air pollution. 11. Do you have any additional information to support your claim of an affirmative defense? If yes, you must provide that information at this time to be considered. Not at this time.</t>
+  </si>
+  <si>
+    <t>i. Total Volume Flared = 242.78 MSCFii. NOx Released = (MSCF) x (1,000 scf/MSCF) x (BTU/SCF) x (MMBTU/1,000,000 BTU) x (NOx factor from RG-109) = lbs. of NOx iii. CO Released = (MSCF) x (1,000 scf/MSCF) x (BTU/SCF) x (MMBTU/1,000,000 BTU) x (CO factor from RG-109) = lbs. of CO iv. SO2 Released = (MSCF) x (64 lb/mole) x (mole/0.379 MSCF) x (mole % H2S/100) x 0.98 = lbs. of SO2 v. VOC Released = (MSCF) x (50 lb/mole) x (mole/0.379 MSCF) x (mole% NMNE NG) x 0.02 = total lbs. of VOC vi. H2S Released = (MSCF) x (34 lb/mole) x (mole/ 0.379 MSCF) x (mole % H2S/100) x 0.02 = lbs. of H2S</t>
+  </si>
+  <si>
+    <t>02/04/2021 07:27 AM</t>
+  </si>
+  <si>
+    <t>NRSP 158172</t>
+  </si>
+  <si>
+    <t>Natural Gas VOCs</t>
+  </si>
+  <si>
+    <t>Nitrogen dioxide</t>
+  </si>
+  <si>
+    <t>Nitrogen oxide</t>
+  </si>
+  <si>
+    <t>349952</t>
+  </si>
+  <si>
+    <t>RN110840097</t>
+  </si>
+  <si>
+    <t>ST LAWRENCE GAS PLANT</t>
+  </si>
+  <si>
+    <t>8107 STATE HWY 137; GARDEN CITY, TX 79739</t>
+  </si>
+  <si>
+    <t>GLASSCOCK</t>
+  </si>
+  <si>
+    <t>02/03/2021 13:36</t>
+  </si>
+  <si>
+    <t>02/04/2021 5:40</t>
+  </si>
+  <si>
+    <t>Process Flare</t>
+  </si>
+  <si>
+    <t>FL-1501</t>
+  </si>
+  <si>
+    <t>Amine treating was disrupted due to an overflow of the site's product treater. With the amine treating unit down, the residue gas produced did not meet pipeline specification and thus the third party customer's pipelne slam valve closed. The off spec residue sales gas was flared until the amine unit was restarted and stable operations were maintained. Several hours later, the site experienced loss of third party electrical power and thereby plant operations were shutdown. Residue gas flaring continued along with flaring from the site's stabilizer system. This flaring extended due to DCS issues that resulted in the interlocking of these flare valves. Flaring occurred intermittently for 16 hours and 4 minutes during a 35 hour and 31 minute period.</t>
+  </si>
+  <si>
+    <t>The product treater was isolated and removed from service in order to return the amine unit to operations. Amine filters were replaced and the system was restarted. Once the residue gas returned to pipeline specification, the downstream customer opened the block valve. Programming issues on the computer were resolved, and the interlocks were cleared along with the residue flare valve being checked. All flaring was ended. The site's flare was maintained in constant operation during this event, flare pilots were monitored, and no bypassing of the control device occurred.</t>
+  </si>
+  <si>
+    <t>Flaring emissions based upon metered gas volume, H2S gas analysis, and event duration. Calculations based upon TCEQ guidance document known as RG-109.</t>
+  </si>
+  <si>
+    <t>02/03/2021 11:41 PM</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>349951</t>
+  </si>
+  <si>
+    <t>RN104199682</t>
+  </si>
+  <si>
+    <t>DUKE ENERGY FIELD SERVICES PIPELINE ANDREWS COUNTY</t>
+  </si>
+  <si>
+    <t>ANDREWS COUNTY PIPELINE SEGMENT(S)</t>
+  </si>
+  <si>
+    <t>ANDREWS</t>
+  </si>
+  <si>
+    <t>02/03/2021 8:15</t>
+  </si>
+  <si>
+    <t>02/03/2021 20:00</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>The emissions were caused by the sudden, unavoidable breakdown of equipment or process that was beyond the owner/operator's control, and did not stem from activity that could have been foreseen and avoided, and could not have been avoided by good design, operation, and maintenance practices. The field operators identified a hydrate in the GF line. As a result, the line was isolated, and blowndown to remove the hydrate for safety reasons.</t>
+  </si>
+  <si>
+    <t>The field operator properly followed the safety precautions and blew down the line to remove the hydrate.</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide: 1014.44832 {mcf/event} * 1000 {cf/mcf} * 0.018821 {mole fraction} * 44 {lb/lb-mole} / 385 {scf/lb-mole}Ethane: 1014.44832 {mcf/event} * 1000 {cf/mcf} * 0.159912 {mole fraction} * 30 {lb/lb-mole} / 385 {scf/lb-mole}Hexane: 1014.44832 {mcf/event} * 1000 {cf/mcf} * 0.009604 {mole fraction} * 86.2 {lb/lb-mole} / 385 {scf/lb-mole} Hydrogen Sulfide: 1014.44832 {mcf/event} * 1000 {cf/mcf} * 0.019297 {mole fraction} * 34.1 {lb/lb-mole} / 385 {scf/lb-mole} i-Butane: 1014.44832 {mcf/event} * 1000 {cf/mcf} * 0.013211 {mole fraction} * 58.1 {lb/lb-mole} / 385 {scf/lb-mole} i-Pentane: 1014.44832 {mcf/event} * 1000 {cf/mcf} * 0.007512 {mole fraction} * 72.15 {lb/lb-mole} / 385 {scf/lb-mole} Methane: 1014.44832 {mcf/event} * 1000 {cf/mcf} * 0.594119 {mole fraction} * 16 {lb/lb-mole} / 385 {scf/lb-mole} n-Butane: 1014.44832 {mcf/event} * 1000 {cf/mcf} * 0.032537 {mole fraction} * 58.12 {lb/lb-mole} / 385 {scf/lb-mole} n-Pentane: 1014.44832 {mcf/event} * 1000 {cf/mcf} * 0.007602 {mole fraction} * 72.15 {lb/lb-mole} / 385 {scf/lb-mole} Nitrogen: 1014.44832 {mcf/event} * 1000 {cf/mcf} * 0.030991 {mole fraction} * 28 {lb/lb-mole} / 385 {scf/lb-mole} Propane: 1014.44832 {mcf/event} * 1000 {cf/mcf} * 0.106394 {mole fraction} * 44.1 {lb/lb-mole} / 385 {scf/lb-mole} VOC: Sum of emissions: 12363.03003 {lb/event for Propane} + 4982.78686 {lb/event for n-Butane} + 1428.1082 {lb/event for i-Pentane} + 1445.21812 {lb/event for n-Pentane} + 2022.46504 {lb/event for i-Butane} + 2181.36638 {lb/event for Hexane}</t>
+  </si>
+  <si>
+    <t>02/03/2021 07:19 PM</t>
+  </si>
+  <si>
+    <t>1,3-BUTADIENE</t>
+  </si>
+  <si>
+    <t>LBS/HR</t>
+  </si>
+  <si>
+    <t>46307</t>
+  </si>
+  <si>
+    <t>1-Butene</t>
+  </si>
+  <si>
+    <t>Cis-butene-2</t>
+  </si>
+  <si>
+    <t>Ethane</t>
+  </si>
+  <si>
+    <t>Isobutane</t>
+  </si>
+  <si>
+    <t>Isobutylene</t>
+  </si>
+  <si>
+    <t>Propylene</t>
+  </si>
+  <si>
+    <t>Trans-butene-2</t>
+  </si>
+  <si>
+    <t>349940</t>
+  </si>
+  <si>
+    <t>RN100219526</t>
+  </si>
+  <si>
+    <t>HOUSTON PLANT</t>
+  </si>
+  <si>
+    <t>8600 PARK PLACE BLVD; HOUSTON, TX 77017</t>
+  </si>
+  <si>
+    <t>HARRIS</t>
+  </si>
+  <si>
+    <t>02/03/2021 10:46</t>
+  </si>
+  <si>
+    <t>02/03/2021 11:50</t>
+  </si>
+  <si>
+    <t>Plant Flare</t>
+  </si>
+  <si>
+    <t>EP-5</t>
+  </si>
+  <si>
+    <t>Compressor #7 tripped on low RPMs while starting up. Initial attempts to startup Compressor #6 were unsuccessful due to an unknown cause. The compressors are needed for vent gas recovery at the plant, therefore all plant off gas was routed to the plant flare. Technical and root-cause investigations are in progress.</t>
+  </si>
+  <si>
+    <t>Troubleshooting on Gas Compressor #6 was completed, and the compressor was started up. This allowed off gas to be removed from the plant flare and flaring ceased.</t>
+  </si>
+  <si>
+    <t>Flare HRVOC analyzer. The RQ for 1,3 Butadiene was exceeded during this event.</t>
+  </si>
+  <si>
+    <t>02/03/2021 03:51 PM</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>% OPACITY</t>
+  </si>
+  <si>
+    <t>NSR 81011</t>
+  </si>
+  <si>
+    <t>349881</t>
+  </si>
+  <si>
+    <t>RN100225291</t>
+  </si>
+  <si>
+    <t>OWENS CORNING ROOFING AND ASPHALT IRVING FACILITY</t>
+  </si>
+  <si>
+    <t>201 N NURSERY RD IRVING TX</t>
+  </si>
+  <si>
+    <t>DALLAS</t>
+  </si>
+  <si>
+    <t>02/03/2021 9:30</t>
+  </si>
+  <si>
+    <t>02/09/2021 21:30</t>
+  </si>
+  <si>
+    <t>MAINTENANCE</t>
+  </si>
+  <si>
+    <t>PCC Incinerator</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Scheduled maintenance project to change the electrical configuration of the converter blower motor starter; required removing/replacing wiring/equipment and subsequent calibration and troubleshooting. No excess emissions or opacity were observed.</t>
+  </si>
+  <si>
+    <t>None required; no excess emissions or opacity occurred</t>
+  </si>
+  <si>
+    <t>Quantity determination is based upon knowledge of the process and prior, similar projects.</t>
+  </si>
+  <si>
+    <t>02/03/2021 09:16 AM</t>
+  </si>
+  <si>
+    <t>NRSP 154210</t>
+  </si>
+  <si>
+    <t>349731</t>
+  </si>
+  <si>
+    <t>RN100212653</t>
+  </si>
+  <si>
+    <t>SALE RANCH GAS PLANT</t>
+  </si>
+  <si>
+    <t>8.5 MI NNW OF I-20 AND 1.9 MI WSW OF FM 829</t>
+  </si>
+  <si>
+    <t>02/03/2021 7:00</t>
+  </si>
+  <si>
+    <t>02/04/2021 18:04</t>
+  </si>
+  <si>
+    <t>Sale Ranch Gas Plant (SRGP) flared inlet and residue gases from the planned shutdown of the site’s sister facility. SRGP processed all inlet gas possible and the rest that could not be shutout in the field was flared at the gas plant. Additional residue gas production that could not be placed into the sales gas pipeline was also flared.</t>
+  </si>
+  <si>
+    <t>Flaring ended once the sister facility was restarted and processes were lined out along with the field gas balance between the two sites. The site's flare was maintained in constant operation during this event, flare pilots were monitored and no bypassing of the control device occurred.</t>
+  </si>
+  <si>
+    <t>Flaring emissions based upon estimatd gas volumes and event duration. Calculations based upon TCEQ guidance document known as RG-109.</t>
+  </si>
+  <si>
+    <t>01/29/2021 05:52 PM</t>
+  </si>
+  <si>
+    <t>St. Permit 117730</t>
+  </si>
+  <si>
+    <t>349726</t>
+  </si>
+  <si>
+    <t>RN107128977</t>
+  </si>
+  <si>
+    <t>MARTIN COUNTY GAS PLANT</t>
+  </si>
+  <si>
+    <t>FROM I-20 EXIT TX-137 TURN NORTH AT FM 3113 TURN LEFT AT FM 829 TURN RIGHT GO 2.0 MILES TURN LEFT ON FM1212 GO 3.1 MILE TURN RIGHT CR 2701 SITE IS 1.0 MILE ON THE RIGHT</t>
+  </si>
+  <si>
+    <t>02/03/2021 0:00</t>
+  </si>
+  <si>
+    <t>02/03/2021 6:23</t>
+  </si>
+  <si>
+    <t>AIR SHUTDOWN</t>
+  </si>
+  <si>
+    <t>On February 3rd, Martin County Gas Plant had a scheduled shutdown to install a new flare and conduct other maintenance activities within the plant processes. Inlet and residue gases were flared as part of the plant shutdown only. Resulting emissions from this event were below reportable emissions levels.</t>
+  </si>
+  <si>
+    <t>Once the flare was installed and the other plant maintenance activities were completed, controlled plant startup procedure were followed. The site's flare was maintained in constant operation during this event, flare pilots were monitored and no bypassing of the control device occurred.</t>
+  </si>
+  <si>
+    <t>Flaring emissions based upon metered gas volume, gas analysis and event duration. Calculations based upon TCEQ guidance document known as RG-109.</t>
+  </si>
+  <si>
+    <t>01/29/2021 04:15 PM</t>
   </si>
 </sst>
 </file>
@@ -500,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,14 +1103,17 @@
       <c r="J2" t="s">
         <v>42</v>
       </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
       <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
-        <v>29</v>
+      <c r="M2">
+        <v>3309.46</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -639,16 +1125,16 @@
         <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y2">
         <f>(H2-G2)*24</f>
@@ -694,14 +1180,17 @@
       <c r="J3" t="s">
         <v>42</v>
       </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
       <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
-        <v>29</v>
+      <c r="M3">
+        <v>5911.12</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -710,19 +1199,19 @@
         <v>30</v>
       </c>
       <c r="S3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y3">
         <f>(H3-G3)*24</f>
@@ -734,6 +1223,5597 @@
       </c>
       <c r="AA3">
         <f>IF(Z3&gt;=Q3,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4">
+        <v>1657.6</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4">
+        <f>(H4-G4)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>M4/Y4</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>IF(Z4&gt;=Q4,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5">
+        <v>5.67</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5">
+        <f>(H5-G5)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f>M5/Y5</f>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f>IF(Z5&gt;=Q5,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>777.62</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6">
+        <v>5000</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6">
+        <f>(H6-G6)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f>M6/Y6</f>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f>IF(Z6&gt;=Q6,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7">
+        <v>2508.68</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7">
+        <v>5000</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7">
+        <f>(H7-G7)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f>M7/Y7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f>IF(Z7&gt;=Q7,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8">
+        <v>18.67</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8">
+        <v>1000</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" t="s">
+        <v>73</v>
+      </c>
+      <c r="V8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8">
+        <f>(H8-G8)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f>M8/Y8</f>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f>IF(Z8&gt;=Q8,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9">
+        <v>5.79</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9">
+        <v>5000</v>
+      </c>
+      <c r="R9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V9" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y9">
+        <f>(H9-G9)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f>M9/Y9</f>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f>IF(Z9&gt;=Q9,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10">
+        <v>0.42</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10">
+        <v>1000</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" t="s">
+        <v>73</v>
+      </c>
+      <c r="V10" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y10">
+        <f>(H10-G10)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f>M10/Y10</f>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f>IF(Z10&gt;=Q10,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11">
+        <v>43.11</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11">
+        <v>5000</v>
+      </c>
+      <c r="R11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y11">
+        <f>(H11-G11)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f>M11/Y11</f>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f>IF(Z11&gt;=Q11,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12">
+        <v>75.54000000000001</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12">
+        <v>5000</v>
+      </c>
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" t="s">
+        <v>73</v>
+      </c>
+      <c r="V12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y12">
+        <f>(H12-G12)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f>M12/Y12</f>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f>IF(Z12&gt;=Q12,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13">
+        <v>4.8</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13">
+        <v>5000</v>
+      </c>
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" t="s">
+        <v>73</v>
+      </c>
+      <c r="V13" t="s">
+        <v>74</v>
+      </c>
+      <c r="W13" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y13">
+        <f>(H13-G13)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f>M13/Y13</f>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f>IF(Z13&gt;=Q13,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14">
+        <v>17.76</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14">
+        <v>5000</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" t="s">
+        <v>73</v>
+      </c>
+      <c r="V14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y14">
+        <f>(H14-G14)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f>M14/Y14</f>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f>IF(Z14&gt;=Q14,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15">
+        <v>1256.62</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15">
+        <v>5000</v>
+      </c>
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y15">
+        <f>(H15-G15)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f>M15/Y15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f>IF(Z15&gt;=Q15,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16">
+        <v>317.63</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16">
+        <v>5000</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" t="s">
+        <v>49</v>
+      </c>
+      <c r="U16" t="s">
+        <v>73</v>
+      </c>
+      <c r="V16" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16">
+        <f>(H16-G16)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f>M16/Y16</f>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f>IF(Z16&gt;=Q16,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17">
+        <v>1380.27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17">
+        <v>5000</v>
+      </c>
+      <c r="R17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" t="s">
+        <v>49</v>
+      </c>
+      <c r="U17" t="s">
+        <v>73</v>
+      </c>
+      <c r="V17" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y17">
+        <f>(H17-G17)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f>M17/Y17</f>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f>IF(Z17&gt;=Q17,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <v>6.05</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18">
+        <v>1000</v>
+      </c>
+      <c r="R18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" t="s">
+        <v>49</v>
+      </c>
+      <c r="U18" t="s">
+        <v>73</v>
+      </c>
+      <c r="V18" t="s">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s">
+        <v>75</v>
+      </c>
+      <c r="X18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y18">
+        <f>(H18-G18)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f>M18/Y18</f>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f>IF(Z18&gt;=Q18,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" t="s">
+        <v>49</v>
+      </c>
+      <c r="U19" t="s">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s">
+        <v>74</v>
+      </c>
+      <c r="W19" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y19">
+        <f>(H19-G19)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f>M19/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f>IF(Z19&gt;=Q19,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20">
+        <v>6.79</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="R20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" t="s">
+        <v>49</v>
+      </c>
+      <c r="U20" t="s">
+        <v>73</v>
+      </c>
+      <c r="V20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y20">
+        <f>(H20-G20)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f>M20/Y20</f>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f>IF(Z20&gt;=Q20,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <v>930.9400000000001</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21">
+        <v>5000</v>
+      </c>
+      <c r="R21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" t="s">
+        <v>49</v>
+      </c>
+      <c r="U21" t="s">
+        <v>73</v>
+      </c>
+      <c r="V21" t="s">
+        <v>74</v>
+      </c>
+      <c r="W21" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y21">
+        <f>(H21-G21)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f>M21/Y21</f>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f>IF(Z21&gt;=Q21,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22">
+        <v>4485.08</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22">
+        <v>5000</v>
+      </c>
+      <c r="R22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" t="s">
+        <v>49</v>
+      </c>
+      <c r="U22" t="s">
+        <v>73</v>
+      </c>
+      <c r="V22" t="s">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s">
+        <v>75</v>
+      </c>
+      <c r="X22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y22">
+        <f>(H22-G22)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f>M22/Y22</f>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f>IF(Z22&gt;=Q22,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23">
+        <v>22.35</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23">
+        <v>1000</v>
+      </c>
+      <c r="R23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" t="s">
+        <v>49</v>
+      </c>
+      <c r="U23" t="s">
+        <v>73</v>
+      </c>
+      <c r="V23" t="s">
+        <v>74</v>
+      </c>
+      <c r="W23" t="s">
+        <v>75</v>
+      </c>
+      <c r="X23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y23">
+        <f>(H23-G23)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f>M23/Y23</f>
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f>IF(Z23&gt;=Q23,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24">
+        <v>6.92</v>
+      </c>
+      <c r="P24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24">
+        <v>5000</v>
+      </c>
+      <c r="R24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" t="s">
+        <v>49</v>
+      </c>
+      <c r="U24" t="s">
+        <v>73</v>
+      </c>
+      <c r="V24" t="s">
+        <v>74</v>
+      </c>
+      <c r="W24" t="s">
+        <v>75</v>
+      </c>
+      <c r="X24" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y24">
+        <f>(H24-G24)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f>M24/Y24</f>
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f>IF(Z24&gt;=Q24,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25">
+        <v>0.5</v>
+      </c>
+      <c r="P25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25">
+        <v>1000</v>
+      </c>
+      <c r="R25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" t="s">
+        <v>49</v>
+      </c>
+      <c r="U25" t="s">
+        <v>73</v>
+      </c>
+      <c r="V25" t="s">
+        <v>74</v>
+      </c>
+      <c r="W25" t="s">
+        <v>75</v>
+      </c>
+      <c r="X25" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y25">
+        <f>(H25-G25)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f>M25/Y25</f>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f>IF(Z25&gt;=Q25,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26">
+        <v>51.61</v>
+      </c>
+      <c r="P26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26">
+        <v>5000</v>
+      </c>
+      <c r="R26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" t="s">
+        <v>49</v>
+      </c>
+      <c r="U26" t="s">
+        <v>73</v>
+      </c>
+      <c r="V26" t="s">
+        <v>74</v>
+      </c>
+      <c r="W26" t="s">
+        <v>75</v>
+      </c>
+      <c r="X26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y26">
+        <f>(H26-G26)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <f>M26/Y26</f>
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <f>IF(Z26&gt;=Q26,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27">
+        <v>89.23999999999999</v>
+      </c>
+      <c r="P27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27">
+        <v>5000</v>
+      </c>
+      <c r="R27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" t="s">
+        <v>49</v>
+      </c>
+      <c r="U27" t="s">
+        <v>73</v>
+      </c>
+      <c r="V27" t="s">
+        <v>74</v>
+      </c>
+      <c r="W27" t="s">
+        <v>75</v>
+      </c>
+      <c r="X27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y27">
+        <f>(H27-G27)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f>M27/Y27</f>
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f>IF(Z27&gt;=Q27,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28">
+        <v>5.74</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28">
+        <v>5000</v>
+      </c>
+      <c r="R28" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" t="s">
+        <v>49</v>
+      </c>
+      <c r="U28" t="s">
+        <v>73</v>
+      </c>
+      <c r="V28" t="s">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s">
+        <v>75</v>
+      </c>
+      <c r="X28" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y28">
+        <f>(H28-G28)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f>M28/Y28</f>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f>IF(Z28&gt;=Q28,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29">
+        <v>21.26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29">
+        <v>5000</v>
+      </c>
+      <c r="R29" t="s">
+        <v>29</v>
+      </c>
+      <c r="S29" t="s">
+        <v>49</v>
+      </c>
+      <c r="U29" t="s">
+        <v>73</v>
+      </c>
+      <c r="V29" t="s">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s">
+        <v>75</v>
+      </c>
+      <c r="X29" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y29">
+        <f>(H29-G29)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f>M29/Y29</f>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f>IF(Z29&gt;=Q29,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30">
+        <v>1677.21</v>
+      </c>
+      <c r="P30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30">
+        <v>5000</v>
+      </c>
+      <c r="R30" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" t="s">
+        <v>49</v>
+      </c>
+      <c r="U30" t="s">
+        <v>73</v>
+      </c>
+      <c r="V30" t="s">
+        <v>74</v>
+      </c>
+      <c r="W30" t="s">
+        <v>75</v>
+      </c>
+      <c r="X30" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y30">
+        <f>(H30-G30)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f>M30/Y30</f>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f>IF(Z30&gt;=Q30,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31">
+        <v>380.26</v>
+      </c>
+      <c r="P31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31">
+        <v>5000</v>
+      </c>
+      <c r="R31" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" t="s">
+        <v>49</v>
+      </c>
+      <c r="U31" t="s">
+        <v>73</v>
+      </c>
+      <c r="V31" t="s">
+        <v>74</v>
+      </c>
+      <c r="W31" t="s">
+        <v>75</v>
+      </c>
+      <c r="X31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y31">
+        <f>(H31-G31)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f>M31/Y31</f>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f>IF(Z31&gt;=Q31,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32">
+        <v>1654.37</v>
+      </c>
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32">
+        <v>5000</v>
+      </c>
+      <c r="R32" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" t="s">
+        <v>49</v>
+      </c>
+      <c r="U32" t="s">
+        <v>73</v>
+      </c>
+      <c r="V32" t="s">
+        <v>74</v>
+      </c>
+      <c r="W32" t="s">
+        <v>75</v>
+      </c>
+      <c r="X32" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y32">
+        <f>(H32-G32)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f>M32/Y32</f>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f>IF(Z32&gt;=Q32,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33">
+        <v>7.24</v>
+      </c>
+      <c r="P33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33">
+        <v>1000</v>
+      </c>
+      <c r="R33" t="s">
+        <v>29</v>
+      </c>
+      <c r="S33" t="s">
+        <v>49</v>
+      </c>
+      <c r="U33" t="s">
+        <v>73</v>
+      </c>
+      <c r="V33" t="s">
+        <v>74</v>
+      </c>
+      <c r="W33" t="s">
+        <v>75</v>
+      </c>
+      <c r="X33" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y33">
+        <f>(H33-G33)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f>M33/Y33</f>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f>IF(Z33&gt;=Q33,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" t="s">
+        <v>63</v>
+      </c>
+      <c r="M34">
+        <v>1.5</v>
+      </c>
+      <c r="P34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34">
+        <v>100</v>
+      </c>
+      <c r="R34" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34" t="s">
+        <v>49</v>
+      </c>
+      <c r="U34" t="s">
+        <v>73</v>
+      </c>
+      <c r="V34" t="s">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s">
+        <v>75</v>
+      </c>
+      <c r="X34" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y34">
+        <f>(H34-G34)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f>M34/Y34</f>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f>IF(Z34&gt;=Q34,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" t="s">
+        <v>88</v>
+      </c>
+      <c r="L35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35">
+        <v>0.6</v>
+      </c>
+      <c r="P35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
+        <v>30</v>
+      </c>
+      <c r="S35" t="s">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s">
+        <v>89</v>
+      </c>
+      <c r="V35" t="s">
+        <v>90</v>
+      </c>
+      <c r="W35" t="s">
+        <v>91</v>
+      </c>
+      <c r="X35" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y35">
+        <f>(H35-G35)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f>M35/Y35</f>
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f>IF(Z35&gt;=Q35,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36" t="s">
+        <v>88</v>
+      </c>
+      <c r="L36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36">
+        <v>32819.82</v>
+      </c>
+      <c r="P36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
+        <v>30</v>
+      </c>
+      <c r="S36" t="s">
+        <v>78</v>
+      </c>
+      <c r="U36" t="s">
+        <v>89</v>
+      </c>
+      <c r="V36" t="s">
+        <v>90</v>
+      </c>
+      <c r="W36" t="s">
+        <v>91</v>
+      </c>
+      <c r="X36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y36">
+        <f>(H36-G36)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f>M36/Y36</f>
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f>IF(Z36&gt;=Q36,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37">
+        <v>12</v>
+      </c>
+      <c r="P37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
+        <v>30</v>
+      </c>
+      <c r="S37" t="s">
+        <v>93</v>
+      </c>
+      <c r="U37" t="s">
+        <v>103</v>
+      </c>
+      <c r="V37" t="s">
+        <v>104</v>
+      </c>
+      <c r="W37" t="s">
+        <v>105</v>
+      </c>
+      <c r="X37" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y37">
+        <f>(H37-G37)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f>M37/Y37</f>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f>IF(Z37&gt;=Q37,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s">
+        <v>102</v>
+      </c>
+      <c r="L38" t="s">
+        <v>77</v>
+      </c>
+      <c r="M38">
+        <v>12.1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S38" t="s">
+        <v>93</v>
+      </c>
+      <c r="U38" t="s">
+        <v>103</v>
+      </c>
+      <c r="V38" t="s">
+        <v>104</v>
+      </c>
+      <c r="W38" t="s">
+        <v>105</v>
+      </c>
+      <c r="X38" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y38">
+        <f>(H38-G38)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f>M38/Y38</f>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f>IF(Z38&gt;=Q38,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" t="s">
+        <v>102</v>
+      </c>
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39">
+        <v>38</v>
+      </c>
+      <c r="P39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>30</v>
+      </c>
+      <c r="S39" t="s">
+        <v>93</v>
+      </c>
+      <c r="U39" t="s">
+        <v>103</v>
+      </c>
+      <c r="V39" t="s">
+        <v>104</v>
+      </c>
+      <c r="W39" t="s">
+        <v>105</v>
+      </c>
+      <c r="X39" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y39">
+        <f>(H39-G39)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f>M39/Y39</f>
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f>IF(Z39&gt;=Q39,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40">
+        <v>6.2</v>
+      </c>
+      <c r="P40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>30</v>
+      </c>
+      <c r="S40" t="s">
+        <v>93</v>
+      </c>
+      <c r="U40" t="s">
+        <v>103</v>
+      </c>
+      <c r="V40" t="s">
+        <v>104</v>
+      </c>
+      <c r="W40" t="s">
+        <v>105</v>
+      </c>
+      <c r="X40" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y40">
+        <f>(H40-G40)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f>M40/Y40</f>
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f>IF(Z40&gt;=Q40,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" t="s">
+        <v>102</v>
+      </c>
+      <c r="L41" t="s">
+        <v>94</v>
+      </c>
+      <c r="M41">
+        <v>1117</v>
+      </c>
+      <c r="P41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>30</v>
+      </c>
+      <c r="S41" t="s">
+        <v>93</v>
+      </c>
+      <c r="U41" t="s">
+        <v>103</v>
+      </c>
+      <c r="V41" t="s">
+        <v>104</v>
+      </c>
+      <c r="W41" t="s">
+        <v>105</v>
+      </c>
+      <c r="X41" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y41">
+        <f>(H41-G41)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f>M41/Y41</f>
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <f>IF(Z41&gt;=Q41,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" t="s">
+        <v>102</v>
+      </c>
+      <c r="L42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42">
+        <v>73</v>
+      </c>
+      <c r="P42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
+        <v>30</v>
+      </c>
+      <c r="S42" t="s">
+        <v>93</v>
+      </c>
+      <c r="U42" t="s">
+        <v>103</v>
+      </c>
+      <c r="V42" t="s">
+        <v>112</v>
+      </c>
+      <c r="W42" t="s">
+        <v>113</v>
+      </c>
+      <c r="X42" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y42">
+        <f>(H42-G42)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f>M42/Y42</f>
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <f>IF(Z42&gt;=Q42,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>102</v>
+      </c>
+      <c r="L43" t="s">
+        <v>77</v>
+      </c>
+      <c r="M43">
+        <v>23</v>
+      </c>
+      <c r="P43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>30</v>
+      </c>
+      <c r="S43" t="s">
+        <v>93</v>
+      </c>
+      <c r="U43" t="s">
+        <v>103</v>
+      </c>
+      <c r="V43" t="s">
+        <v>112</v>
+      </c>
+      <c r="W43" t="s">
+        <v>113</v>
+      </c>
+      <c r="X43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y43">
+        <f>(H43-G43)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f>M43/Y43</f>
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <f>IF(Z43&gt;=Q43,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s">
+        <v>102</v>
+      </c>
+      <c r="L44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44">
+        <v>93</v>
+      </c>
+      <c r="P44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>30</v>
+      </c>
+      <c r="S44" t="s">
+        <v>93</v>
+      </c>
+      <c r="U44" t="s">
+        <v>103</v>
+      </c>
+      <c r="V44" t="s">
+        <v>112</v>
+      </c>
+      <c r="W44" t="s">
+        <v>113</v>
+      </c>
+      <c r="X44" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y44">
+        <f>(H44-G44)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f>M44/Y44</f>
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <f>IF(Z44&gt;=Q44,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" t="s">
+        <v>33</v>
+      </c>
+      <c r="M45">
+        <v>36.4</v>
+      </c>
+      <c r="P45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
+        <v>30</v>
+      </c>
+      <c r="S45" t="s">
+        <v>93</v>
+      </c>
+      <c r="U45" t="s">
+        <v>103</v>
+      </c>
+      <c r="V45" t="s">
+        <v>112</v>
+      </c>
+      <c r="W45" t="s">
+        <v>113</v>
+      </c>
+      <c r="X45" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y45">
+        <f>(H45-G45)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f>M45/Y45</f>
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <f>IF(Z45&gt;=Q45,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s">
+        <v>102</v>
+      </c>
+      <c r="L46" t="s">
+        <v>94</v>
+      </c>
+      <c r="M46">
+        <v>2117</v>
+      </c>
+      <c r="P46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>30</v>
+      </c>
+      <c r="S46" t="s">
+        <v>93</v>
+      </c>
+      <c r="U46" t="s">
+        <v>103</v>
+      </c>
+      <c r="V46" t="s">
+        <v>112</v>
+      </c>
+      <c r="W46" t="s">
+        <v>113</v>
+      </c>
+      <c r="X46" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y46">
+        <f>(H46-G46)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f>M46/Y46</f>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f>IF(Z46&gt;=Q46,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H47" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s">
+        <v>126</v>
+      </c>
+      <c r="K47" t="s">
+        <v>127</v>
+      </c>
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47">
+        <v>7179.48</v>
+      </c>
+      <c r="P47" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="s">
+        <v>30</v>
+      </c>
+      <c r="S47" t="s">
+        <v>115</v>
+      </c>
+      <c r="U47" t="s">
+        <v>128</v>
+      </c>
+      <c r="V47" t="s">
+        <v>129</v>
+      </c>
+      <c r="W47" t="s">
+        <v>130</v>
+      </c>
+      <c r="X47" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y47">
+        <f>(H47-G47)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f>M47/Y47</f>
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <f>IF(Z47&gt;=Q47,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>124</v>
+      </c>
+      <c r="H48" t="s">
+        <v>125</v>
+      </c>
+      <c r="I48" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s">
+        <v>126</v>
+      </c>
+      <c r="K48" t="s">
+        <v>127</v>
+      </c>
+      <c r="L48" t="s">
+        <v>77</v>
+      </c>
+      <c r="M48">
+        <v>0.32</v>
+      </c>
+      <c r="P48" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
+        <v>30</v>
+      </c>
+      <c r="S48" t="s">
+        <v>115</v>
+      </c>
+      <c r="U48" t="s">
+        <v>128</v>
+      </c>
+      <c r="V48" t="s">
+        <v>129</v>
+      </c>
+      <c r="W48" t="s">
+        <v>130</v>
+      </c>
+      <c r="X48" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y48">
+        <f>(H48-G48)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <f>M48/Y48</f>
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <f>IF(Z48&gt;=Q48,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K49" t="s">
+        <v>127</v>
+      </c>
+      <c r="L49" t="s">
+        <v>116</v>
+      </c>
+      <c r="M49">
+        <v>104.55</v>
+      </c>
+      <c r="P49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>30</v>
+      </c>
+      <c r="S49" t="s">
+        <v>115</v>
+      </c>
+      <c r="U49" t="s">
+        <v>128</v>
+      </c>
+      <c r="V49" t="s">
+        <v>129</v>
+      </c>
+      <c r="W49" t="s">
+        <v>130</v>
+      </c>
+      <c r="X49" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y49">
+        <f>(H49-G49)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <f>M49/Y49</f>
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <f>IF(Z49&gt;=Q49,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>126</v>
+      </c>
+      <c r="K50" t="s">
+        <v>127</v>
+      </c>
+      <c r="L50" t="s">
+        <v>117</v>
+      </c>
+      <c r="M50">
+        <v>899.0599999999999</v>
+      </c>
+      <c r="P50" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" t="s">
+        <v>30</v>
+      </c>
+      <c r="S50" t="s">
+        <v>115</v>
+      </c>
+      <c r="U50" t="s">
+        <v>128</v>
+      </c>
+      <c r="V50" t="s">
+        <v>129</v>
+      </c>
+      <c r="W50" t="s">
+        <v>130</v>
+      </c>
+      <c r="X50" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y50">
+        <f>(H50-G50)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <f>M50/Y50</f>
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <f>IF(Z50&gt;=Q50,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s">
+        <v>126</v>
+      </c>
+      <c r="K51" t="s">
+        <v>127</v>
+      </c>
+      <c r="L51" t="s">
+        <v>118</v>
+      </c>
+      <c r="M51">
+        <v>2697.19</v>
+      </c>
+      <c r="P51" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
+        <v>30</v>
+      </c>
+      <c r="S51" t="s">
+        <v>115</v>
+      </c>
+      <c r="U51" t="s">
+        <v>128</v>
+      </c>
+      <c r="V51" t="s">
+        <v>129</v>
+      </c>
+      <c r="W51" t="s">
+        <v>130</v>
+      </c>
+      <c r="X51" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y51">
+        <f>(H51-G51)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <f>M51/Y51</f>
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <f>IF(Z51&gt;=Q51,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I52" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K52" t="s">
+        <v>127</v>
+      </c>
+      <c r="L52" t="s">
+        <v>94</v>
+      </c>
+      <c r="M52">
+        <v>29.6</v>
+      </c>
+      <c r="P52" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
+        <v>30</v>
+      </c>
+      <c r="S52" t="s">
+        <v>115</v>
+      </c>
+      <c r="U52" t="s">
+        <v>128</v>
+      </c>
+      <c r="V52" t="s">
+        <v>129</v>
+      </c>
+      <c r="W52" t="s">
+        <v>130</v>
+      </c>
+      <c r="X52" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y52">
+        <f>(H52-G52)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <f>M52/Y52</f>
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <f>IF(Z52&gt;=Q52,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" t="s">
+        <v>139</v>
+      </c>
+      <c r="I53" t="s">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s">
+        <v>140</v>
+      </c>
+      <c r="K53" t="s">
+        <v>140</v>
+      </c>
+      <c r="L53" t="s">
+        <v>77</v>
+      </c>
+      <c r="M53">
+        <v>1733.86</v>
+      </c>
+      <c r="P53" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53" t="s">
+        <v>30</v>
+      </c>
+      <c r="S53" t="s">
+        <v>132</v>
+      </c>
+      <c r="U53" t="s">
+        <v>141</v>
+      </c>
+      <c r="V53" t="s">
+        <v>142</v>
+      </c>
+      <c r="W53" t="s">
+        <v>143</v>
+      </c>
+      <c r="X53" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y53">
+        <f>(H53-G53)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <f>M53/Y53</f>
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <f>IF(Z53&gt;=Q53,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="A54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" t="s">
+        <v>139</v>
+      </c>
+      <c r="I54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" t="s">
+        <v>140</v>
+      </c>
+      <c r="K54" t="s">
+        <v>140</v>
+      </c>
+      <c r="L54" t="s">
+        <v>79</v>
+      </c>
+      <c r="M54">
+        <v>24422.97</v>
+      </c>
+      <c r="P54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
+        <v>30</v>
+      </c>
+      <c r="S54" t="s">
+        <v>132</v>
+      </c>
+      <c r="U54" t="s">
+        <v>141</v>
+      </c>
+      <c r="V54" t="s">
+        <v>142</v>
+      </c>
+      <c r="W54" t="s">
+        <v>143</v>
+      </c>
+      <c r="X54" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y54">
+        <f>(H54-G54)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <f>M54/Y54</f>
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <f>IF(Z54&gt;=Q54,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="A55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" t="s">
+        <v>161</v>
+      </c>
+      <c r="I55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" t="s">
+        <v>162</v>
+      </c>
+      <c r="K55" t="s">
+        <v>163</v>
+      </c>
+      <c r="L55" t="s">
+        <v>145</v>
+      </c>
+      <c r="M55">
+        <v>141</v>
+      </c>
+      <c r="P55" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55">
+        <v>194.35</v>
+      </c>
+      <c r="R55" t="s">
+        <v>146</v>
+      </c>
+      <c r="S55" t="s">
+        <v>147</v>
+      </c>
+      <c r="U55" t="s">
+        <v>164</v>
+      </c>
+      <c r="V55" t="s">
+        <v>165</v>
+      </c>
+      <c r="W55" t="s">
+        <v>166</v>
+      </c>
+      <c r="X55" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y55">
+        <f>(H55-G55)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <f>M55/Y55</f>
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <f>IF(Z55&gt;=Q55,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="A56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>160</v>
+      </c>
+      <c r="H56" t="s">
+        <v>161</v>
+      </c>
+      <c r="I56" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56" t="s">
+        <v>162</v>
+      </c>
+      <c r="K56" t="s">
+        <v>163</v>
+      </c>
+      <c r="L56" t="s">
+        <v>148</v>
+      </c>
+      <c r="M56">
+        <v>37</v>
+      </c>
+      <c r="P56" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56">
+        <v>194.35</v>
+      </c>
+      <c r="R56" t="s">
+        <v>146</v>
+      </c>
+      <c r="S56" t="s">
+        <v>147</v>
+      </c>
+      <c r="U56" t="s">
+        <v>164</v>
+      </c>
+      <c r="V56" t="s">
+        <v>165</v>
+      </c>
+      <c r="W56" t="s">
+        <v>166</v>
+      </c>
+      <c r="X56" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y56">
+        <f>(H56-G56)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <f>M56/Y56</f>
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <f>IF(Z56&gt;=Q56,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="A57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57" t="s">
+        <v>161</v>
+      </c>
+      <c r="I57" t="s">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s">
+        <v>162</v>
+      </c>
+      <c r="K57" t="s">
+        <v>163</v>
+      </c>
+      <c r="L57" t="s">
+        <v>50</v>
+      </c>
+      <c r="M57">
+        <v>21</v>
+      </c>
+      <c r="P57" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57">
+        <v>194.35</v>
+      </c>
+      <c r="R57" t="s">
+        <v>146</v>
+      </c>
+      <c r="S57" t="s">
+        <v>147</v>
+      </c>
+      <c r="U57" t="s">
+        <v>164</v>
+      </c>
+      <c r="V57" t="s">
+        <v>165</v>
+      </c>
+      <c r="W57" t="s">
+        <v>166</v>
+      </c>
+      <c r="X57" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y57">
+        <f>(H57-G57)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <f>M57/Y57</f>
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <f>IF(Z57&gt;=Q57,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="A58" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>160</v>
+      </c>
+      <c r="H58" t="s">
+        <v>161</v>
+      </c>
+      <c r="I58" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s">
+        <v>162</v>
+      </c>
+      <c r="K58" t="s">
+        <v>163</v>
+      </c>
+      <c r="L58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M58">
+        <v>125</v>
+      </c>
+      <c r="P58" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58">
+        <v>156.45</v>
+      </c>
+      <c r="R58" t="s">
+        <v>146</v>
+      </c>
+      <c r="S58" t="s">
+        <v>147</v>
+      </c>
+      <c r="U58" t="s">
+        <v>164</v>
+      </c>
+      <c r="V58" t="s">
+        <v>165</v>
+      </c>
+      <c r="W58" t="s">
+        <v>166</v>
+      </c>
+      <c r="X58" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y58">
+        <f>(H58-G58)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <f>M58/Y58</f>
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <f>IF(Z58&gt;=Q58,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59" t="s">
+        <v>161</v>
+      </c>
+      <c r="I59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s">
+        <v>162</v>
+      </c>
+      <c r="K59" t="s">
+        <v>163</v>
+      </c>
+      <c r="L59" t="s">
+        <v>149</v>
+      </c>
+      <c r="M59">
+        <v>2.5</v>
+      </c>
+      <c r="P59" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59">
+        <v>194.35</v>
+      </c>
+      <c r="R59" t="s">
+        <v>146</v>
+      </c>
+      <c r="S59" t="s">
+        <v>147</v>
+      </c>
+      <c r="U59" t="s">
+        <v>164</v>
+      </c>
+      <c r="V59" t="s">
+        <v>165</v>
+      </c>
+      <c r="W59" t="s">
+        <v>166</v>
+      </c>
+      <c r="X59" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y59">
+        <f>(H59-G59)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <f>M59/Y59</f>
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <f>IF(Z59&gt;=Q59,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="A60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60" t="s">
+        <v>161</v>
+      </c>
+      <c r="I60" t="s">
+        <v>41</v>
+      </c>
+      <c r="J60" t="s">
+        <v>162</v>
+      </c>
+      <c r="K60" t="s">
+        <v>163</v>
+      </c>
+      <c r="L60" t="s">
+        <v>150</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="P60" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60">
+        <v>194.35</v>
+      </c>
+      <c r="R60" t="s">
+        <v>146</v>
+      </c>
+      <c r="S60" t="s">
+        <v>147</v>
+      </c>
+      <c r="U60" t="s">
+        <v>164</v>
+      </c>
+      <c r="V60" t="s">
+        <v>165</v>
+      </c>
+      <c r="W60" t="s">
+        <v>166</v>
+      </c>
+      <c r="X60" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y60">
+        <f>(H60-G60)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <f>M60/Y60</f>
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <f>IF(Z60&gt;=Q60,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="A61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>160</v>
+      </c>
+      <c r="H61" t="s">
+        <v>161</v>
+      </c>
+      <c r="I61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61" t="s">
+        <v>162</v>
+      </c>
+      <c r="K61" t="s">
+        <v>163</v>
+      </c>
+      <c r="L61" t="s">
+        <v>151</v>
+      </c>
+      <c r="M61">
+        <v>50</v>
+      </c>
+      <c r="P61" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61">
+        <v>194.35</v>
+      </c>
+      <c r="R61" t="s">
+        <v>146</v>
+      </c>
+      <c r="S61" t="s">
+        <v>147</v>
+      </c>
+      <c r="U61" t="s">
+        <v>164</v>
+      </c>
+      <c r="V61" t="s">
+        <v>165</v>
+      </c>
+      <c r="W61" t="s">
+        <v>166</v>
+      </c>
+      <c r="X61" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y61">
+        <f>(H61-G61)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <f>M61/Y61</f>
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <f>IF(Z61&gt;=Q61,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="A62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>160</v>
+      </c>
+      <c r="H62" t="s">
+        <v>161</v>
+      </c>
+      <c r="I62" t="s">
+        <v>41</v>
+      </c>
+      <c r="J62" t="s">
+        <v>162</v>
+      </c>
+      <c r="K62" t="s">
+        <v>163</v>
+      </c>
+      <c r="L62" t="s">
+        <v>152</v>
+      </c>
+      <c r="M62">
+        <v>44</v>
+      </c>
+      <c r="P62" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62">
+        <v>194.35</v>
+      </c>
+      <c r="R62" t="s">
+        <v>146</v>
+      </c>
+      <c r="S62" t="s">
+        <v>147</v>
+      </c>
+      <c r="U62" t="s">
+        <v>164</v>
+      </c>
+      <c r="V62" t="s">
+        <v>165</v>
+      </c>
+      <c r="W62" t="s">
+        <v>166</v>
+      </c>
+      <c r="X62" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y62">
+        <f>(H62-G62)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <f>M62/Y62</f>
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <f>IF(Z62&gt;=Q62,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="A63" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>160</v>
+      </c>
+      <c r="H63" t="s">
+        <v>161</v>
+      </c>
+      <c r="I63" t="s">
+        <v>41</v>
+      </c>
+      <c r="J63" t="s">
+        <v>162</v>
+      </c>
+      <c r="K63" t="s">
+        <v>163</v>
+      </c>
+      <c r="L63" t="s">
+        <v>118</v>
+      </c>
+      <c r="M63">
+        <v>17</v>
+      </c>
+      <c r="P63" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63">
+        <v>30.7</v>
+      </c>
+      <c r="R63" t="s">
+        <v>146</v>
+      </c>
+      <c r="S63" t="s">
+        <v>147</v>
+      </c>
+      <c r="U63" t="s">
+        <v>164</v>
+      </c>
+      <c r="V63" t="s">
+        <v>165</v>
+      </c>
+      <c r="W63" t="s">
+        <v>166</v>
+      </c>
+      <c r="X63" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y63">
+        <f>(H63-G63)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <f>M63/Y63</f>
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <f>IF(Z63&gt;=Q63,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="A64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>160</v>
+      </c>
+      <c r="H64" t="s">
+        <v>161</v>
+      </c>
+      <c r="I64" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64" t="s">
+        <v>162</v>
+      </c>
+      <c r="K64" t="s">
+        <v>163</v>
+      </c>
+      <c r="L64" t="s">
+        <v>58</v>
+      </c>
+      <c r="M64">
+        <v>9.5</v>
+      </c>
+      <c r="P64" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64">
+        <v>194.35</v>
+      </c>
+      <c r="R64" t="s">
+        <v>146</v>
+      </c>
+      <c r="S64" t="s">
+        <v>147</v>
+      </c>
+      <c r="U64" t="s">
+        <v>164</v>
+      </c>
+      <c r="V64" t="s">
+        <v>165</v>
+      </c>
+      <c r="W64" t="s">
+        <v>166</v>
+      </c>
+      <c r="X64" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y64">
+        <f>(H64-G64)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <f>M64/Y64</f>
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <f>IF(Z64&gt;=Q64,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="A65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>160</v>
+      </c>
+      <c r="H65" t="s">
+        <v>161</v>
+      </c>
+      <c r="I65" t="s">
+        <v>41</v>
+      </c>
+      <c r="J65" t="s">
+        <v>162</v>
+      </c>
+      <c r="K65" t="s">
+        <v>163</v>
+      </c>
+      <c r="L65" t="s">
+        <v>59</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="P65" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65">
+        <v>194.35</v>
+      </c>
+      <c r="R65" t="s">
+        <v>146</v>
+      </c>
+      <c r="S65" t="s">
+        <v>147</v>
+      </c>
+      <c r="U65" t="s">
+        <v>164</v>
+      </c>
+      <c r="V65" t="s">
+        <v>165</v>
+      </c>
+      <c r="W65" t="s">
+        <v>166</v>
+      </c>
+      <c r="X65" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y65">
+        <f>(H65-G65)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <f>M65/Y65</f>
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <f>IF(Z65&gt;=Q65,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
+      <c r="A66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>160</v>
+      </c>
+      <c r="H66" t="s">
+        <v>161</v>
+      </c>
+      <c r="I66" t="s">
+        <v>41</v>
+      </c>
+      <c r="J66" t="s">
+        <v>162</v>
+      </c>
+      <c r="K66" t="s">
+        <v>163</v>
+      </c>
+      <c r="L66" t="s">
+        <v>153</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="P66" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66">
+        <v>194.35</v>
+      </c>
+      <c r="R66" t="s">
+        <v>146</v>
+      </c>
+      <c r="S66" t="s">
+        <v>147</v>
+      </c>
+      <c r="U66" t="s">
+        <v>164</v>
+      </c>
+      <c r="V66" t="s">
+        <v>165</v>
+      </c>
+      <c r="W66" t="s">
+        <v>166</v>
+      </c>
+      <c r="X66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y66">
+        <f>(H66-G66)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <f>M66/Y66</f>
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <f>IF(Z66&gt;=Q66,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
+      <c r="A67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" t="s">
+        <v>159</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>160</v>
+      </c>
+      <c r="H67" t="s">
+        <v>161</v>
+      </c>
+      <c r="I67" t="s">
+        <v>41</v>
+      </c>
+      <c r="J67" t="s">
+        <v>162</v>
+      </c>
+      <c r="K67" t="s">
+        <v>163</v>
+      </c>
+      <c r="L67" t="s">
+        <v>94</v>
+      </c>
+      <c r="M67">
+        <v>0.19</v>
+      </c>
+      <c r="P67" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67">
+        <v>0.01</v>
+      </c>
+      <c r="R67" t="s">
+        <v>146</v>
+      </c>
+      <c r="S67" t="s">
+        <v>147</v>
+      </c>
+      <c r="U67" t="s">
+        <v>164</v>
+      </c>
+      <c r="V67" t="s">
+        <v>165</v>
+      </c>
+      <c r="W67" t="s">
+        <v>166</v>
+      </c>
+      <c r="X67" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y67">
+        <f>(H67-G67)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <f>M67/Y67</f>
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <f>IF(Z67&gt;=Q67,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
+      <c r="A68" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>160</v>
+      </c>
+      <c r="H68" t="s">
+        <v>161</v>
+      </c>
+      <c r="I68" t="s">
+        <v>41</v>
+      </c>
+      <c r="J68" t="s">
+        <v>162</v>
+      </c>
+      <c r="K68" t="s">
+        <v>163</v>
+      </c>
+      <c r="L68" t="s">
+        <v>154</v>
+      </c>
+      <c r="M68">
+        <v>29</v>
+      </c>
+      <c r="P68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68">
+        <v>194.35</v>
+      </c>
+      <c r="R68" t="s">
+        <v>146</v>
+      </c>
+      <c r="S68" t="s">
+        <v>147</v>
+      </c>
+      <c r="U68" t="s">
+        <v>164</v>
+      </c>
+      <c r="V68" t="s">
+        <v>165</v>
+      </c>
+      <c r="W68" t="s">
+        <v>166</v>
+      </c>
+      <c r="X68" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y68">
+        <f>(H68-G68)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <f>M68/Y68</f>
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <f>IF(Z68&gt;=Q68,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
+      <c r="A69" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" t="s">
+        <v>173</v>
+      </c>
+      <c r="D69" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>176</v>
+      </c>
+      <c r="H69" t="s">
+        <v>177</v>
+      </c>
+      <c r="I69" t="s">
+        <v>178</v>
+      </c>
+      <c r="J69" t="s">
+        <v>179</v>
+      </c>
+      <c r="K69" t="s">
+        <v>180</v>
+      </c>
+      <c r="L69" t="s">
+        <v>168</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="P69" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69" t="s">
+        <v>30</v>
+      </c>
+      <c r="S69" t="s">
+        <v>170</v>
+      </c>
+      <c r="U69" t="s">
+        <v>181</v>
+      </c>
+      <c r="V69" t="s">
+        <v>182</v>
+      </c>
+      <c r="W69" t="s">
+        <v>183</v>
+      </c>
+      <c r="X69" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y69">
+        <f>(H69-G69)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <f>M69/Y69</f>
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <f>IF(Z69&gt;=Q69,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
+      <c r="A70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>190</v>
+      </c>
+      <c r="H70" t="s">
+        <v>191</v>
+      </c>
+      <c r="I70" t="s">
+        <v>178</v>
+      </c>
+      <c r="J70" t="s">
+        <v>127</v>
+      </c>
+      <c r="K70" t="s">
+        <v>127</v>
+      </c>
+      <c r="L70" t="s">
+        <v>28</v>
+      </c>
+      <c r="M70">
+        <v>19478.07</v>
+      </c>
+      <c r="P70" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70" t="s">
+        <v>30</v>
+      </c>
+      <c r="S70" t="s">
+        <v>185</v>
+      </c>
+      <c r="U70" t="s">
+        <v>192</v>
+      </c>
+      <c r="V70" t="s">
+        <v>193</v>
+      </c>
+      <c r="W70" t="s">
+        <v>194</v>
+      </c>
+      <c r="X70" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y70">
+        <f>(H70-G70)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <f>M70/Y70</f>
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <f>IF(Z70&gt;=Q70,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="A71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>190</v>
+      </c>
+      <c r="H71" t="s">
+        <v>191</v>
+      </c>
+      <c r="I71" t="s">
+        <v>178</v>
+      </c>
+      <c r="J71" t="s">
+        <v>127</v>
+      </c>
+      <c r="K71" t="s">
+        <v>127</v>
+      </c>
+      <c r="L71" t="s">
+        <v>77</v>
+      </c>
+      <c r="M71">
+        <v>0.06</v>
+      </c>
+      <c r="P71" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>30</v>
+      </c>
+      <c r="S71" t="s">
+        <v>185</v>
+      </c>
+      <c r="U71" t="s">
+        <v>192</v>
+      </c>
+      <c r="V71" t="s">
+        <v>193</v>
+      </c>
+      <c r="W71" t="s">
+        <v>194</v>
+      </c>
+      <c r="X71" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y71">
+        <f>(H71-G71)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <f>M71/Y71</f>
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <f>IF(Z71&gt;=Q71,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="A72" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>190</v>
+      </c>
+      <c r="H72" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" t="s">
+        <v>178</v>
+      </c>
+      <c r="J72" t="s">
+        <v>127</v>
+      </c>
+      <c r="K72" t="s">
+        <v>127</v>
+      </c>
+      <c r="L72" t="s">
+        <v>79</v>
+      </c>
+      <c r="M72">
+        <v>6362.9</v>
+      </c>
+      <c r="P72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72" t="s">
+        <v>30</v>
+      </c>
+      <c r="S72" t="s">
+        <v>185</v>
+      </c>
+      <c r="U72" t="s">
+        <v>192</v>
+      </c>
+      <c r="V72" t="s">
+        <v>193</v>
+      </c>
+      <c r="W72" t="s">
+        <v>194</v>
+      </c>
+      <c r="X72" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y72">
+        <f>(H72-G72)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <f>M72/Y72</f>
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <f>IF(Z72&gt;=Q72,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
+      <c r="A73" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>190</v>
+      </c>
+      <c r="H73" t="s">
+        <v>191</v>
+      </c>
+      <c r="I73" t="s">
+        <v>178</v>
+      </c>
+      <c r="J73" t="s">
+        <v>127</v>
+      </c>
+      <c r="K73" t="s">
+        <v>127</v>
+      </c>
+      <c r="L73" t="s">
+        <v>117</v>
+      </c>
+      <c r="M73">
+        <v>2439.18</v>
+      </c>
+      <c r="P73" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73" t="s">
+        <v>30</v>
+      </c>
+      <c r="S73" t="s">
+        <v>185</v>
+      </c>
+      <c r="U73" t="s">
+        <v>192</v>
+      </c>
+      <c r="V73" t="s">
+        <v>193</v>
+      </c>
+      <c r="W73" t="s">
+        <v>194</v>
+      </c>
+      <c r="X73" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y73">
+        <f>(H73-G73)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <f>M73/Y73</f>
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <f>IF(Z73&gt;=Q73,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="A74" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>190</v>
+      </c>
+      <c r="H74" t="s">
+        <v>191</v>
+      </c>
+      <c r="I74" t="s">
+        <v>178</v>
+      </c>
+      <c r="J74" t="s">
+        <v>127</v>
+      </c>
+      <c r="K74" t="s">
+        <v>127</v>
+      </c>
+      <c r="L74" t="s">
+        <v>118</v>
+      </c>
+      <c r="M74">
+        <v>7317.53</v>
+      </c>
+      <c r="P74" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74" t="s">
+        <v>30</v>
+      </c>
+      <c r="S74" t="s">
+        <v>185</v>
+      </c>
+      <c r="U74" t="s">
+        <v>192</v>
+      </c>
+      <c r="V74" t="s">
+        <v>193</v>
+      </c>
+      <c r="W74" t="s">
+        <v>194</v>
+      </c>
+      <c r="X74" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y74">
+        <f>(H74-G74)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <f>M74/Y74</f>
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <f>IF(Z74&gt;=Q74,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="A75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>190</v>
+      </c>
+      <c r="H75" t="s">
+        <v>191</v>
+      </c>
+      <c r="I75" t="s">
+        <v>178</v>
+      </c>
+      <c r="J75" t="s">
+        <v>127</v>
+      </c>
+      <c r="K75" t="s">
+        <v>127</v>
+      </c>
+      <c r="L75" t="s">
+        <v>94</v>
+      </c>
+      <c r="M75">
+        <v>5.16</v>
+      </c>
+      <c r="P75" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75" t="s">
+        <v>30</v>
+      </c>
+      <c r="S75" t="s">
+        <v>185</v>
+      </c>
+      <c r="U75" t="s">
+        <v>192</v>
+      </c>
+      <c r="V75" t="s">
+        <v>193</v>
+      </c>
+      <c r="W75" t="s">
+        <v>194</v>
+      </c>
+      <c r="X75" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y75">
+        <f>(H75-G75)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <f>M75/Y75</f>
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <f>IF(Z75&gt;=Q75,"Y","N")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
+      <c r="A76" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>201</v>
+      </c>
+      <c r="H76" t="s">
+        <v>202</v>
+      </c>
+      <c r="I76" t="s">
+        <v>203</v>
+      </c>
+      <c r="J76" t="s">
+        <v>126</v>
+      </c>
+      <c r="K76" t="s">
+        <v>43</v>
+      </c>
+      <c r="L76" t="s">
+        <v>79</v>
+      </c>
+      <c r="M76">
+        <v>0.001</v>
+      </c>
+      <c r="P76" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76" t="s">
+        <v>30</v>
+      </c>
+      <c r="S76" t="s">
+        <v>196</v>
+      </c>
+      <c r="U76" t="s">
+        <v>204</v>
+      </c>
+      <c r="V76" t="s">
+        <v>205</v>
+      </c>
+      <c r="W76" t="s">
+        <v>206</v>
+      </c>
+      <c r="X76" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y76">
+        <f>(H76-G76)*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <f>M76/Y76</f>
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <f>IF(Z76&gt;=Q76,"Y","N")</f>
         <v>0</v>
       </c>
     </row>
@@ -741,6 +6821,79 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -748,7 +6901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -771,9 +6924,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A3,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A4,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A5,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A6,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A7,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A8,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A9,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A10,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A11,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12">
+        <f>SUMIFS(Cases!M:M,Cases!A:A,'Incident Sums'!A12,Cases!P:P,"&lt;&gt;*OPACITY*")</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
